--- a/results.xlsx
+++ b/results.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinsu99/Desktop/RENE/workshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C81C8B2-2B6C-0540-A010-B7A23392FA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B02D363-E342-0444-B805-E0EEA7410BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22940" yWindow="-4040" windowWidth="32000" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-19420" windowWidth="35720" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="214">
   <si>
     <t>classifier</t>
   </si>
@@ -711,13 +712,31 @@
   </si>
   <si>
     <t>0.713513</t>
+  </si>
+  <si>
+    <t>f1 score(0.7:0.3) randomstate=123</t>
+  </si>
+  <si>
+    <t>f1 score(0.7:0.3) randomstate = 123</t>
+  </si>
+  <si>
+    <t>f1 score (0.7:0.3) randomstate=123</t>
+  </si>
+  <si>
+    <t>f1score (0.8:0.2) randomstate=1</t>
+  </si>
+  <si>
+    <t>Test smells</t>
+  </si>
+  <si>
+    <t>should exists in assert text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,13 +773,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -811,10 +842,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -829,6 +861,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -841,11 +883,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1148,309 +1188,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2187F6FF-BE3F-7449-9380-30099D634819}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A9" sqref="A9"/>
-      <selection pane="topRight" activeCell="G85" sqref="G85"/>
+      <selection pane="topRight" activeCell="A21" sqref="A21:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="8" max="8" width="89.5" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="9" max="9" width="89.5" customWidth="1"/>
+    <col min="12" max="12" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
+    <row r="2" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
         <v>0.97695214252991869</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
+        <v>0.96733060484242472</v>
+      </c>
+      <c r="E2">
         <v>0.97694524495677237</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>163</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>109</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.99943446440452421</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.95411946069833264</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
         <v>0.95966155769860306</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
+        <v>0.95388720624726309</v>
+      </c>
+      <c r="E3">
         <v>0.95965417867435154</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>118</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>164</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>165</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>110</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.95981370592149051</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.91929107277864097</v>
       </c>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
         <v>0.97695328998594999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="E4">
         <v>0.97694524495677237</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>166</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>111</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.97756154357950775</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.95445653390399887</v>
       </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
         <v>0.99423631123919309</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
+        <v>0.95575098151399762</v>
+      </c>
+      <c r="E5">
         <v>0.99423631123919309</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>120</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>168</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>112</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.99956753160345979</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.98845642049234861</v>
       </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6">
         <v>0.98559437115134574</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
+        <v>0.97500862904033936</v>
+      </c>
+      <c r="E6">
         <v>0.98559077809798268</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>121</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>169</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>113</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.98589487691284095</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.97130519146505123</v>
       </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7">
         <v>0.98846974504606844</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
+        <v>0.96540002854288565</v>
+      </c>
+      <c r="E7">
         <v>0.98847262247838619</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>122</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>170</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>167</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>114</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.99730538922155687</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.97696800326653443</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
         <v>0.97693949009213732</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
+        <v>0.95385711935961415</v>
+      </c>
+      <c r="E8">
         <v>0.97694524495677237</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>123</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>171</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>173</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>115</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.99171656686626752</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.95386931508246553</v>
       </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+      <c r="L8" s="10"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
         <v>0.77051625989820227</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
+        <v>0.73393024602084778</v>
+      </c>
+      <c r="E9">
         <v>0.7723342939481268</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>124</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>172</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>174</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>116</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.76931137724550891</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.54734112681413472</v>
       </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1459,283 +1529,310 @@
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="7">
+        <v>0.92144787919435811</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
         <v>17</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="7">
+        <v>0.92125031282436287</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
         <v>17</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
         <v>0.90705128205128205</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
+        <v>0.95220425832670741</v>
+      </c>
+      <c r="E14">
         <v>0.90476190476190477</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>125</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>62</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>128</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9285714285714286</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.81649658092772603</v>
       </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
         <v>0.9763845350052246</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
+        <v>0.96843546843546846</v>
+      </c>
+      <c r="E15">
         <v>0.97619047619047616</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>126</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>176</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>129</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.99744897959183676</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.94868329805051388</v>
       </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>16</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
         <v>17</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17">
         <v>0.9763845350052246</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
+        <v>0.95275018769461783</v>
+      </c>
+      <c r="E17">
         <v>0.97619047619047616</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>126</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
         <v>176</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>129</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
         <v>0.94868329805051388</v>
       </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>13</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="7">
+        <v>0.93709582598471486</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="11"/>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19">
         <v>0.906172839506173</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
+        <v>0.68349974398361502</v>
+      </c>
+      <c r="E19">
         <v>0.90476190476190477</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>127</v>
-      </c>
-      <c r="F19" t="s">
-        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>175</v>
       </c>
       <c r="H19" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" t="s">
         <v>130</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.92346938775510201</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.79738153207376683</v>
       </c>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="L19" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1744,283 +1841,310 @@
       <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="D22" s="7">
+        <v>0.96628899999999995</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
       <c r="J22" s="4">
         <v>1</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23">
         <v>0.94910394265232989</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
+        <v>0.88244800000000001</v>
+      </c>
+      <c r="E23">
         <v>0.94444444444444442</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>21</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>178</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="4">
+      <c r="J23" s="4">
         <v>0.96875</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>0.79056899999999997</v>
       </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="7">
+        <v>0.95715300000000003</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
         <v>19</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
       <c r="J24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
+      <c r="K24" s="4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="7">
+        <v>0.89886600000000005</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>19</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="4">
-        <v>1</v>
-      </c>
       <c r="J25" s="4">
         <v>1</v>
       </c>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="7">
+        <v>0.95715300000000003</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>19</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="4">
-        <v>1</v>
-      </c>
       <c r="J26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
       <c r="J27" s="4">
         <v>1</v>
       </c>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28">
         <v>0.83660130718954251</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="7">
+        <v>0.89031300000000002</v>
+      </c>
+      <c r="E28">
         <v>0.88888888888888884</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>133</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>131</v>
       </c>
-      <c r="I28" s="4">
-        <v>1</v>
-      </c>
       <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
         <v>0</v>
       </c>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29">
         <v>0.77366255144032925</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="7">
+        <v>0.87345700000000004</v>
+      </c>
+      <c r="E29">
         <v>0.72222222222222221</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>134</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>177</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
       <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
         <v>0.44320300000000001</v>
       </c>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2029,283 +2153,310 @@
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="J31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32">
         <v>0.95150513043236351</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
+        <v>0.95583233420805558</v>
+      </c>
+      <c r="E32">
         <v>0.95165394402035619</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>136</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>179</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>180</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>143</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.99533676010810235</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.90113942472185316</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
         <v>0.9387130206731974</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="7">
+        <v>0.95411933151006245</v>
+      </c>
+      <c r="E33">
         <v>0.93893129770992367</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>137</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>181</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>182</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>144</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.93439669333898578</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.87502904858318564</v>
       </c>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
         <v>0.92826488768032844</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="7">
+        <v>0.95751789954635402</v>
+      </c>
+      <c r="E34">
         <v>0.92875318066157764</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>138</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>183</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>184</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>145</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.92346722484235066</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.85493266880297869</v>
       </c>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35">
         <v>0.95672579712820349</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="7">
+        <v>0.95230823935730669</v>
+      </c>
+      <c r="E35">
         <v>0.95674300254452926</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>139</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>185</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>48</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>146</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.97840601981876951</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.91143431469371505</v>
       </c>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
       <c r="B36" t="s">
         <v>11</v>
       </c>
       <c r="C36">
         <v>0.97197561016199874</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="7">
+        <v>0.97449443103711131</v>
+      </c>
+      <c r="E36">
         <v>0.97201017811704837</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>140</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>186</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>187</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>147</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.97019235864554076</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.94271051776400727</v>
       </c>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37">
         <v>0.96175082730244543</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="7">
+        <v>0.96595835066580782</v>
+      </c>
+      <c r="E37">
         <v>0.96183206106870234</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>24</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>59</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>189</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>25</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.98516241852578035</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.92191245793937004</v>
       </c>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38">
         <v>0.9411744968846707</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="7">
+        <v>0.93512933817594834</v>
+      </c>
+      <c r="E38">
         <v>0.94147582697201015</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>141</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>175</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>190</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>148</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.97957182979174395</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.88068493819128735</v>
       </c>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39">
         <v>0.74726982149668542</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="7">
+        <v>0.76477689331549381</v>
+      </c>
+      <c r="E39">
         <v>0.75063613231552162</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>142</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>188</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>191</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>149</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.73975941921466803</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>0.48395835760029282</v>
       </c>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="L39" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2314,283 +2465,310 @@
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="J41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
         <v>0.95437447737046388</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="7">
+        <v>0.96048632218844987</v>
+      </c>
+      <c r="E42">
         <v>0.95444191343963558</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>150</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>49</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>64</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>27</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.99394891122278062</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>0.91287682233148482</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="L42" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43">
         <v>0.92008474161914455</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
+        <v>0.9361998690379032</v>
+      </c>
+      <c r="E43">
         <v>0.92027334851936216</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>151</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>50</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>65</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>28</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.93774078726968169</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>0.87586677654560552</v>
       </c>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44">
         <v>0.94988610478359914</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="7">
+        <v>0.94524288118633593</v>
+      </c>
+      <c r="E44">
         <v>0.94988610478359914</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>152</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>51</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>66</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>29</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.93221314907872688</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.87236653794726293</v>
       </c>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45">
         <v>0.96122889834246172</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="7">
+        <v>0.96502158348908196</v>
+      </c>
+      <c r="E45">
         <v>0.96127562642369024</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>153</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>52</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>67</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>30</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.9916876046901173</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>0.9402376326029237</v>
       </c>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
       <c r="B46" t="s">
         <v>11</v>
       </c>
       <c r="C46">
         <v>0.97721069330914412</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="7">
+        <v>0.96954869780190112</v>
+      </c>
+      <c r="E46">
         <v>0.97722095671981779</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>154</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>53</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>68</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>31</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.97077051926298163</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>0.94041934770342517</v>
       </c>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="7"/>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47">
         <v>0.96580779459137855</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="7">
+        <v>0.96350613845918742</v>
+      </c>
+      <c r="E47">
         <v>0.96583143507972669</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>54</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>64</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>32</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.99200167504187609</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>0.9219130150479582</v>
       </c>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48">
         <v>0.95202001048629359</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="7">
+        <v>0.93597683438394963</v>
+      </c>
+      <c r="E48">
         <v>0.95216400911161736</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>155</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>55</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>69</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>34</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.98842127303182581</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>0.93106140223054257</v>
       </c>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
       <c r="B49" t="s">
         <v>14</v>
       </c>
       <c r="C49">
         <v>0.78925672718448425</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="7">
+        <v>0.70518254179211015</v>
+      </c>
+      <c r="E49">
         <v>0.79043280182232345</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>156</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>56</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>70</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>35</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>0.75687814070351767</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>0.56320833283863136</v>
       </c>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="L49" s="11"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2599,283 +2777,310 @@
       <c r="C51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52">
         <v>0.94261507212032558</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="7">
+        <v>0.91648661440006585</v>
+      </c>
+      <c r="E52">
         <v>0.94318181818181823</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>157</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>85</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>193</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>160</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>0.99581371009942443</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>0.88942291650623539</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="L52" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53">
         <v>0.93131232837115197</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
+        <v>0.88735726072154941</v>
+      </c>
+      <c r="E53">
         <v>0.93181818181818177</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>41</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>192</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>193</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>42</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>0.92569335426478283</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>0.86414227601447291</v>
       </c>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54">
         <v>0.83886946386946382</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="7">
+        <v>0.89834936152878886</v>
+      </c>
+      <c r="E54">
         <v>0.84090909090909094</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>39</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>57</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>71</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>40</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.83097854526425952</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>0.67923783227423673</v>
       </c>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55">
         <v>0.91918480580452411</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="7">
+        <v>0.91564484688423553</v>
+      </c>
+      <c r="E55">
         <v>0.92045454545454541</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>158</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>85</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>194</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>161</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.9612768184196756</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>0.84731854573632337</v>
       </c>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56">
         <v>0.95420821891410124</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="7">
+        <v>0.94660305955852508</v>
+      </c>
+      <c r="E56">
         <v>0.95454545454545459</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>37</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>85</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>195</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>38</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.94871794871794879</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>0.91088137883516973</v>
       </c>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57">
         <v>0.95420821891410124</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="7">
+        <v>0.94631944801724077</v>
+      </c>
+      <c r="E57">
         <v>0.95454545454545459</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>37</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>85</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>195</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>38</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.92673992673992678</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>0.91088137883516973</v>
       </c>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58">
         <v>0.95420821891410124</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="7">
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="E58">
         <v>0.95454545454545459</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>37</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>85</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>195</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>38</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.946624803767661</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>0.91088137883516973</v>
       </c>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59">
         <v>0.81856060606060599</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="7">
+        <v>0.8657615112160566</v>
+      </c>
+      <c r="E59">
         <v>0.81818181818181823</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>159</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>196</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>194</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>162</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.82182103610675039</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>0.63418998196298648</v>
       </c>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="L59" s="11"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2884,285 +3089,311 @@
       <c r="C61" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="H61" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="L61" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C62">
         <v>0.95101460003403138</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="7">
+        <v>0.9488385826325838</v>
+      </c>
+      <c r="E62" s="4">
         <v>0.94882699999999998</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="G62" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>95</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.99241570924382372</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>0.89906198488875377</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="L62" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
       <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C63">
         <v>0.91909634469826218</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="7">
+        <v>0.93752952633541919</v>
+      </c>
+      <c r="E63" s="4">
         <v>0.92963799999999996</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>103</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G63" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="H63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>96</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.91791507096192837</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>0.83336193426569005</v>
       </c>
-      <c r="K63" s="9"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
       <c r="B64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C64">
         <v>0.93196072276929565</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="7">
+        <v>0.92340015635470185</v>
+      </c>
+      <c r="E64" s="4">
         <v>0.93176999999999999</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>104</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="G64" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>97</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.93722309829541195</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>0.86052723444612655</v>
       </c>
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
       <c r="B65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C65">
         <v>0.94240799010980647</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="7">
+        <v>0.94743042231782748</v>
+      </c>
+      <c r="E65" s="4">
         <v>0.94882699999999998</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>98</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.96842381917849374</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>0.88105464622225282</v>
       </c>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
       <c r="B66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C66">
         <v>0.97439319967978577</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="7">
+        <v>0.9744192913162919</v>
+      </c>
+      <c r="E66" s="4">
         <v>0.97014900000000004</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="H66" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>99</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.97280731395960063</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>0.94712717098416177</v>
       </c>
-      <c r="K66" s="9"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
       <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C67">
         <v>0.94029850746268662</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="7">
+        <v>0.95309024207869897</v>
+      </c>
+      <c r="E67" s="4">
         <v>0.95309200000000005</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>107</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" t="s">
         <v>100</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.97281670045806112</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>0.8767365022152136</v>
       </c>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
       <c r="B68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C68">
         <v>0.92949164065711276</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="7">
+        <v>0.93705883835837445</v>
+      </c>
+      <c r="E68" s="4">
         <v>0.93390200000000001</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>44</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="H68" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>45</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.97343620935646158</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>0.85436566421500859</v>
       </c>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
+      <c r="L68" s="13"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
       <c r="B69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C69">
         <v>0.75609368125359599</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="7">
+        <v>0.74975063173294321</v>
+      </c>
+      <c r="E69" s="4">
         <v>0.816631</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="H69" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>101</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.72995982578658858</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>0.49530508550304869</v>
       </c>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -3170,9 +3401,10 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="L70" s="4"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="11" t="s">
         <v>89</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -3181,291 +3413,318 @@
       <c r="C71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="L71" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
       <c r="B72" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="4">
         <v>0.92816100000000001</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="7">
+        <v>0.95586527293844359</v>
+      </c>
+      <c r="E72" s="4">
         <v>0.9375</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>77</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>85</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="H72" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>78</v>
       </c>
-      <c r="I72" s="4">
-        <v>1</v>
-      </c>
       <c r="J72" s="4">
+        <v>1</v>
+      </c>
+      <c r="K72" s="4">
         <v>0.68313000000000001</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="L72" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="4">
         <v>0.92816100000000001</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="7">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E73" s="4">
         <v>0.9375</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>77</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>85</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="H73" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>78</v>
       </c>
-      <c r="I73" s="4">
+      <c r="J73" s="4">
         <v>0.75</v>
       </c>
-      <c r="J73" s="4">
+      <c r="K73" s="4">
         <v>0.68313000000000001</v>
       </c>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
       <c r="B74" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="4">
         <v>0.89102599999999998</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="7">
+        <v>0.85185185185185197</v>
+      </c>
+      <c r="E74" s="4">
         <v>0.875</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>79</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>63</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>80</v>
       </c>
-      <c r="I74" s="4">
+      <c r="J74" s="4">
         <v>0.92857100000000004</v>
       </c>
-      <c r="J74" s="4">
+      <c r="K74" s="4">
         <v>0.65465399999999996</v>
       </c>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
       <c r="B75" t="s">
         <v>10</v>
       </c>
       <c r="C75" s="4">
         <v>1</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="D75" s="7">
+        <v>0.95586527293844359</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
         <v>83</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>85</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="H75" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>84</v>
       </c>
-      <c r="I75" s="4">
-        <v>1</v>
-      </c>
       <c r="J75" s="4">
         <v>1</v>
       </c>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
       <c r="B76" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="4">
         <v>1</v>
       </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D76" s="7">
+        <v>0.90476190476190477</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
         <v>83</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>85</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>84</v>
       </c>
-      <c r="I76" s="4">
-        <v>1</v>
-      </c>
       <c r="J76" s="4">
         <v>1</v>
       </c>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
+      <c r="K76" s="4">
+        <v>1</v>
+      </c>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="4">
         <v>1</v>
       </c>
-      <c r="D77" s="4">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D77" s="7">
+        <v>0.95586527293844359</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
         <v>83</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>85</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>84</v>
       </c>
-      <c r="I77" s="4">
-        <v>1</v>
-      </c>
       <c r="J77" s="4">
         <v>1</v>
       </c>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
       <c r="B78" t="s">
         <v>13</v>
       </c>
       <c r="C78" s="4">
         <v>0.92816100000000001</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="7">
+        <v>0.75757575757575746</v>
+      </c>
+      <c r="E78" s="4">
         <v>0.9375</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>77</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>85</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>78</v>
       </c>
-      <c r="I78" s="4">
-        <v>1</v>
-      </c>
       <c r="J78" s="4">
+        <v>1</v>
+      </c>
+      <c r="K78" s="4">
         <v>0.68313000000000001</v>
       </c>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="4">
         <v>0.875</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E79" s="4">
         <v>0.875</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>81</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>63</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="H79" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>82</v>
       </c>
-      <c r="I79" s="4">
+      <c r="J79" s="4">
         <v>0.85714299999999999</v>
       </c>
-      <c r="J79" s="4">
+      <c r="K79" s="4">
         <v>0.42857099999999998</v>
       </c>
-      <c r="K79" s="7"/>
+      <c r="L79" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K72:K79"/>
+    <mergeCell ref="L72:L79"/>
     <mergeCell ref="A61:A69"/>
-    <mergeCell ref="K2:K9"/>
-    <mergeCell ref="K12:K19"/>
-    <mergeCell ref="K22:K29"/>
-    <mergeCell ref="K32:K39"/>
-    <mergeCell ref="K42:K49"/>
-    <mergeCell ref="K52:K59"/>
-    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="L2:L9"/>
+    <mergeCell ref="L12:L19"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="L32:L39"/>
+    <mergeCell ref="L42:L49"/>
+    <mergeCell ref="L52:L59"/>
+    <mergeCell ref="L62:L69"/>
     <mergeCell ref="A1:A9"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="A21:A29"/>
@@ -3477,4 +3736,40 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35ACA020-07C3-184B-992B-96F02AF85FAD}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="277" zoomScaleNormal="277" workbookViewId="0">
+      <selection activeCell="A17" sqref="A2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="54.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinsu99/Desktop/RENE/flaky_tests_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD711B1-A659-CF49-99CE-EB8B430A1CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A471C9-337F-5544-9F0B-36E8310542F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="500" windowWidth="33080" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="23020" windowWidth="22820" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="70-30 normal" sheetId="1" r:id="rId1"/>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A50" sqref="A50:A57"/>
     </sheetView>
   </sheetViews>
@@ -4069,11 +4069,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F141A-4ACA-0C49-8B35-C58E9F1E973C}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -11000,15 +11003,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A58:A65"/>
-    <mergeCell ref="A66:A73"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A82:A89"/>
     <mergeCell ref="A146:A153"/>
@@ -11020,6 +11014,15 @@
     <mergeCell ref="A130:A137"/>
     <mergeCell ref="A138:A145"/>
     <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinsu99/Desktop/RENE/flaky_tests_AI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A471C9-337F-5544-9F0B-36E8310542F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2582CD7C-739E-CC41-A9A4-C34A0F6188CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="23020" windowWidth="22820" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1700" yWindow="23100" windowWidth="22820" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="70-30 normal" sheetId="1" r:id="rId1"/>
-    <sheet name="80-20 normal" sheetId="3" r:id="rId2"/>
-    <sheet name="cross_validation normal" sheetId="4" r:id="rId3"/>
-    <sheet name="Cross_Projects_70_30" sheetId="6" r:id="rId4"/>
-    <sheet name="statistic" sheetId="2" r:id="rId5"/>
+    <sheet name="70_30_TFIDF" sheetId="8" r:id="rId2"/>
+    <sheet name="80-20 normal" sheetId="3" r:id="rId3"/>
+    <sheet name="cross_validation normal" sheetId="4" r:id="rId4"/>
+    <sheet name="Cross_Projects_70_30" sheetId="6" r:id="rId5"/>
+    <sheet name="cross_project_70_30_TFIDF" sheetId="7" r:id="rId6"/>
+    <sheet name="statistic" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="744">
   <si>
     <t>classifier</t>
   </si>
@@ -1883,6 +1885,748 @@
   </si>
   <si>
     <t>Java&amp;py&amp;cpp</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5, 'recall': 0.2, 'f1-score': 0.28571428571428575, 'support': 10.0}, 'NonFlaky': {'precision': 0.6521739130434783, 'recall': 0.8823529411764706, 'f1-score': 0.75, 'support': 17.0}, 'accuracy': 0.6296296296296297, 'macro avg': {'precision': 0.5760869565217391, 'recall': 0.5411764705882353, 'f1-score': 0.5178571428571429, 'support': 27.0}, 'weighted avg': {'precision': 0.5958132045088568, 'recall': 0.6296296296296297, 'f1-score': 0.578042328042328, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[ 2  8]
+ [ 2 15]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.37037037037037035, 'recall': 1.0, 'f1-score': 0.5405405405405406, 'support': 10.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 17.0}, 'accuracy': 0.37037037037037035, 'macro avg': {'precision': 0.18518518518518517, 'recall': 0.5, 'f1-score': 0.2702702702702703, 'support': 27.0}, 'weighted avg': {'precision': 0.1371742112482853, 'recall': 0.37037037037037035, 'f1-score': 0.20020020020020018, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[10  0]
+ [17  0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 10.0}, 'NonFlaky': {'precision': 0.6296296296296297, 'recall': 1.0, 'f1-score': 0.7727272727272727, 'support': 17.0}, 'accuracy': 0.6296296296296297, 'macro avg': {'precision': 0.3148148148148148, 'recall': 0.5, 'f1-score': 0.38636363636363635, 'support': 27.0}, 'weighted avg': {'precision': 0.39643347050754457, 'recall': 0.6296296296296297, 'f1-score': 0.48653198653198654, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 10]
+ [ 0 17]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4, 'recall': 1.0, 'f1-score': 0.5714285714285715, 'support': 10.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.11764705882352941, 'f1-score': 0.21052631578947367, 'support': 17.0}, 'accuracy': 0.4444444444444444, 'macro avg': {'precision': 0.7, 'recall': 0.5588235294117647, 'f1-score': 0.3909774436090226, 'support': 27.0}, 'weighted avg': {'precision': 0.7777777777777778, 'recall': 0.4444444444444444, 'f1-score': 0.3441938178780284, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[10  0]
+ [15  2]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.34615384615384615, 'recall': 0.9, 'f1-score': 0.5, 'support': 10.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 17.0}, 'accuracy': 0.3333333333333333, 'macro avg': {'precision': 0.17307692307692307, 'recall': 0.45, 'f1-score': 0.25, 'support': 27.0}, 'weighted avg': {'precision': 0.12820512820512822, 'recall': 0.3333333333333333, 'f1-score': 0.18518518518518517, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[ 9  1]
+ [17  0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4444444444444444, 'recall': 0.9230769230769231, 'f1-score': 0.6, 'support': 13.0}, 'NonFlaky': {'precision': 0.9166666666666666, 'recall': 0.4230769230769231, 'f1-score': 0.5789473684210527, 'support': 26.0}, 'accuracy': 0.5897435897435898, 'macro avg': {'precision': 0.6805555555555556, 'recall': 0.6730769230769231, 'f1-score': 0.5894736842105264, 'support': 39.0}, 'weighted avg': {'precision': 0.7592592592592593, 'recall': 0.5897435897435898, 'f1-score': 0.5859649122807018, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[12  1]
+ [15 11]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5, 'recall': 0.5384615384615384, 'f1-score': 0.5185185185185186, 'support': 13.0}, 'NonFlaky': {'precision': 0.76, 'recall': 0.7307692307692307, 'f1-score': 0.7450980392156863, 'support': 26.0}, 'accuracy': 0.6666666666666666, 'macro avg': {'precision': 0.63, 'recall': 0.6346153846153846, 'f1-score': 0.6318082788671024, 'support': 39.0}, 'weighted avg': {'precision': 0.6733333333333333, 'recall': 0.6666666666666666, 'f1-score': 0.6695715323166304, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[ 7  6]
+ [ 7 19]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3333333333333333, 'recall': 1.0, 'f1-score': 0.5, 'support': 13.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 26.0}, 'accuracy': 0.3333333333333333, 'macro avg': {'precision': 0.16666666666666666, 'recall': 0.5, 'f1-score': 0.25, 'support': 39.0}, 'weighted avg': {'precision': 0.1111111111111111, 'recall': 0.3333333333333333, 'f1-score': 0.16666666666666666, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[13  0]
+ [26  0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5, 'recall': 0.07692307692307693, 'f1-score': 0.13333333333333336, 'support': 13.0}, 'NonFlaky': {'precision': 0.6756756756756757, 'recall': 0.9615384615384616, 'f1-score': 0.7936507936507937, 'support': 26.0}, 'accuracy': 0.6666666666666666, 'macro avg': {'precision': 0.5878378378378378, 'recall': 0.5192307692307693, 'f1-score': 0.4634920634920635, 'support': 39.0}, 'weighted avg': {'precision': 0.6171171171171171, 'recall': 0.6666666666666666, 'f1-score': 0.5735449735449736, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[ 1 12]
+ [ 1 25]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 13.0}, 'NonFlaky': {'precision': 0.6388888888888888, 'recall': 0.8846153846153846, 'f1-score': 0.7419354838709676, 'support': 26.0}, 'accuracy': 0.5897435897435898, 'macro avg': {'precision': 0.3194444444444444, 'recall': 0.4423076923076923, 'f1-score': 0.3709677419354838, 'support': 39.0}, 'weighted avg': {'precision': 0.42592592592592593, 'recall': 0.5897435897435898, 'f1-score': 0.49462365591397844, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 13]
+ [ 3 23]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3333333333333333, 'recall': 0.9230769230769231, 'f1-score': 0.489795918367347, 'support': 13.0}, 'NonFlaky': {'precision': 0.6666666666666666, 'recall': 0.07692307692307693, 'f1-score': 0.13793103448275862, 'support': 26.0}, 'accuracy': 0.358974358974359, 'macro avg': {'precision': 0.5, 'recall': 0.5, 'f1-score': 0.3138634764250528, 'support': 39.0}, 'weighted avg': {'precision': 0.5555555555555555, 'recall': 0.358974358974359, 'f1-score': 0.25521932911095474, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[12  1]
+ [24  2]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.15384615384615385, 'f1-score': 0.2666666666666667, 'support': 13.0}, 'NonFlaky': {'precision': 0.7027027027027027, 'recall': 1.0, 'f1-score': 0.8253968253968255, 'support': 26.0}, 'accuracy': 0.717948717948718, 'macro avg': {'precision': 0.8513513513513513, 'recall': 0.5769230769230769, 'f1-score': 0.5460317460317461, 'support': 39.0}, 'weighted avg': {'precision': 0.8018018018018018, 'recall': 0.717948717948718, 'f1-score': 0.6391534391534393, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[ 2 11]
+ [ 0 26]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 13.0}, 'NonFlaky': {'precision': 0.6486486486486487, 'recall': 0.9230769230769231, 'f1-score': 0.7619047619047619, 'support': 26.0}, 'accuracy': 0.6153846153846154, 'macro avg': {'precision': 0.32432432432432434, 'recall': 0.46153846153846156, 'f1-score': 0.38095238095238093, 'support': 39.0}, 'weighted avg': {'precision': 0.43243243243243246, 'recall': 0.6153846153846154, 'f1-score': 0.5079365079365079, 'support': 39.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 13]
+ [ 2 24]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.32142857142857145, 'recall': 0.9, 'f1-score': 0.4736842105263158, 'support': 10.0}, 'NonFlaky': {'precision': 0.8, 'recall': 0.17391304347826086, 'f1-score': 0.2857142857142857, 'support': 23.0}, 'accuracy': 0.3939393939393939, 'macro avg': {'precision': 0.5607142857142857, 'recall': 0.5369565217391304, 'f1-score': 0.37969924812030076, 'support': 33.0}, 'weighted avg': {'precision': 0.6549783549783551, 'recall': 0.3939393939393939, 'f1-score': 0.3426748689906585, 'support': 33.0}}</t>
+  </si>
+  <si>
+    <t>[[ 9  1]
+ [19  4]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 10.0}, 'NonFlaky': {'precision': 0.6774193548387096, 'recall': 0.9130434782608695, 'f1-score': 0.7777777777777777, 'support': 23.0}, 'accuracy': 0.6363636363636364, 'macro avg': {'precision': 0.3387096774193548, 'recall': 0.45652173913043476, 'f1-score': 0.38888888888888884, 'support': 33.0}, 'weighted avg': {'precision': 0.4721407624633431, 'recall': 0.6363636363636364, 'f1-score': 0.542087542087542, 'support': 33.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 10]
+ [ 2 21]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 10.0}, 'NonFlaky': {'precision': 0.696969696969697, 'recall': 1.0, 'f1-score': 0.8214285714285715, 'support': 23.0}, 'accuracy': 0.696969696969697, 'macro avg': {'precision': 0.3484848484848485, 'recall': 0.5, 'f1-score': 0.41071428571428575, 'support': 33.0}, 'weighted avg': {'precision': 0.4857667584940312, 'recall': 0.696969696969697, 'f1-score': 0.5725108225108226, 'support': 33.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 10]
+ [ 0 23]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3888888888888889, 'recall': 0.7, 'f1-score': 0.5, 'support': 10.0}, 'NonFlaky': {'precision': 0.8, 'recall': 0.5217391304347826, 'f1-score': 0.6315789473684211, 'support': 23.0}, 'accuracy': 0.5757575757575758, 'macro avg': {'precision': 0.5944444444444444, 'recall': 0.6108695652173912, 'f1-score': 0.5657894736842106, 'support': 33.0}, 'weighted avg': {'precision': 0.6754208754208755, 'recall': 0.5757575757575758, 'f1-score': 0.5917065390749602, 'support': 33.0}}</t>
+  </si>
+  <si>
+    <t>[[ 7  3]
+ [11 12]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4, 'recall': 1.0, 'f1-score': 0.5714285714285715, 'support': 10.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.25, 'f1-score': 0.4, 'support': 20.0}, 'accuracy': 0.5, 'macro avg': {'precision': 0.7, 'recall': 0.625, 'f1-score': 0.48571428571428577, 'support': 30.0}, 'weighted avg': {'precision': 0.8, 'recall': 0.5, 'f1-score': 0.4571428571428572, 'support': 30.0}}</t>
+  </si>
+  <si>
+    <t>[[10  0]
+ [15  5]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.35, 'recall': 0.7, 'f1-score': 0.4666666666666667, 'support': 10.0}, 'NonFlaky': {'precision': 0.7, 'recall': 0.35, 'f1-score': 0.4666666666666667, 'support': 20.0}, 'accuracy': 0.4666666666666667, 'macro avg': {'precision': 0.5249999999999999, 'recall': 0.5249999999999999, 'f1-score': 0.4666666666666667, 'support': 30.0}, 'weighted avg': {'precision': 0.5833333333333334, 'recall': 0.4666666666666667, 'f1-score': 0.4666666666666667, 'support': 30.0}}</t>
+  </si>
+  <si>
+    <t>[[ 7  3]
+ [13  7]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3333333333333333, 'recall': 0.9, 'f1-score': 0.48648648648648646, 'support': 10.0}, 'NonFlaky': {'precision': 0.6666666666666666, 'recall': 0.1, 'f1-score': 0.1739130434782609, 'support': 20.0}, 'accuracy': 0.36666666666666664, 'macro avg': {'precision': 0.5, 'recall': 0.5, 'f1-score': 0.3301997649823737, 'support': 30.0}, 'weighted avg': {'precision': 0.5555555555555555, 'recall': 0.36666666666666664, 'f1-score': 0.2781041911476694, 'support': 30.0}}</t>
+  </si>
+  <si>
+    <t>[[ 9  1]
+ [18  2]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3103448275862069, 'recall': 0.9, 'f1-score': 0.4615384615384615, 'support': 10.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 20.0}, 'accuracy': 0.3, 'macro avg': {'precision': 0.15517241379310345, 'recall': 0.45, 'f1-score': 0.23076923076923075, 'support': 30.0}, 'weighted avg': {'precision': 0.10344827586206896, 'recall': 0.3, 'f1-score': 0.15384615384615383, 'support': 30.0}}</t>
+  </si>
+  <si>
+    <t>[[ 9  1]
+ [20  0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5135135135135135, 'recall': 0.926829268292683, 'f1-score': 0.6608695652173913, 'support': 41.0}, 'NonFlaky': {'precision': 0.8125, 'recall': 0.2653061224489796, 'f1-score': 0.39999999999999997, 'support': 49.0}, 'accuracy': 0.5666666666666667, 'macro avg': {'precision': 0.6630067567567568, 'recall': 0.5960676953708313, 'f1-score': 0.5304347826086956, 'support': 90.0}, 'weighted avg': {'precision': 0.676295045045045, 'recall': 0.5666666666666667, 'f1-score': 0.5188405797101449, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[38  3]
+ [36 13]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.45977011494252873, 'recall': 0.975609756097561, 'f1-score': 0.625, 'support': 41.0}, 'NonFlaky': {'precision': 0.6666666666666666, 'recall': 0.04081632653061224, 'f1-score': 0.07692307692307691, 'support': 49.0}, 'accuracy': 0.4666666666666667, 'macro avg': {'precision': 0.5632183908045977, 'recall': 0.5082130413140866, 'f1-score': 0.35096153846153844, 'support': 90.0}, 'weighted avg': {'precision': 0.5724137931034482, 'recall': 0.4666666666666667, 'f1-score': 0.3266025641025641, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[40  1]
+ [47  2]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.45454545454545453, 'recall': 0.6097560975609756, 'f1-score': 0.5208333333333334, 'support': 41.0}, 'NonFlaky': {'precision': 0.5428571428571428, 'recall': 0.3877551020408163, 'f1-score': 0.4523809523809524, 'support': 49.0}, 'accuracy': 0.4888888888888889, 'macro avg': {'precision': 0.49870129870129865, 'recall': 0.49875559980089595, 'f1-score': 0.4866071428571429, 'support': 90.0}, 'weighted avg': {'precision': 0.5026262626262626, 'recall': 0.4888888888888889, 'f1-score': 0.48356481481481484, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[25 16]
+ [30 19]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.44871794871794873, 'recall': 0.8536585365853658, 'f1-score': 0.5882352941176471, 'support': 41.0}, 'NonFlaky': {'precision': 0.5, 'recall': 0.12244897959183673, 'f1-score': 0.19672131147540983, 'support': 49.0}, 'accuracy': 0.45555555555555555, 'macro avg': {'precision': 0.47435897435897434, 'recall': 0.4880537580886013, 'f1-score': 0.39247830279652846, 'support': 90.0}, 'weighted avg': {'precision': 0.47663817663817665, 'recall': 0.45555555555555555, 'f1-score': 0.37507768134576236, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[35  6]
+ [43  6]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.45454545454545453, 'recall': 0.975609756097561, 'f1-score': 0.6201550387596899, 'support': 41.0}, 'NonFlaky': {'precision': 0.5, 'recall': 0.02040816326530612, 'f1-score': 0.039215686274509796, 'support': 49.0}, 'accuracy': 0.45555555555555555, 'macro avg': {'precision': 0.4772727272727273, 'recall': 0.49800895968143355, 'f1-score': 0.32968536251709984, 'support': 90.0}, 'weighted avg': {'precision': 0.4792929292929293, 'recall': 0.45555555555555555, 'f1-score': 0.3038658357399807, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[40  1]
+ [48  1]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.22857142857142856, 'recall': 0.4444444444444444, 'f1-score': 0.3018867924528302, 'support': 18.0}, 'NonFlaky': {'precision': 0.6153846153846154, 'recall': 0.37209302325581395, 'f1-score': 0.463768115942029, 'support': 43.0}, 'accuracy': 0.39344262295081966, 'macro avg': {'precision': 0.421978021978022, 'recall': 0.4082687338501292, 'f1-score': 0.3828274541974296, 'support': 61.0}, 'weighted avg': {'precision': 0.5012430192758062, 'recall': 0.39344262295081966, 'f1-score': 0.4159998565517736, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[ 8 10]
+ [27 16]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.27586206896551724, 'recall': 0.4444444444444444, 'f1-score': 0.3404255319148936, 'support': 18.0}, 'NonFlaky': {'precision': 0.6875, 'recall': 0.5116279069767442, 'f1-score': 0.5866666666666667, 'support': 43.0}, 'accuracy': 0.4918032786885246, 'macro avg': {'precision': 0.4816810344827586, 'recall': 0.4780361757105943, 'f1-score': 0.46354609929078017, 'support': 61.0}, 'weighted avg': {'precision': 0.5660330695308083, 'recall': 0.4918032786885246, 'f1-score': 0.5140053482153237, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[ 8 10]
+ [21 22]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3181818181818182, 'recall': 0.3888888888888889, 'f1-score': 0.35000000000000003, 'support': 18.0}, 'NonFlaky': {'precision': 0.717948717948718, 'recall': 0.6511627906976745, 'f1-score': 0.6829268292682927, 'support': 43.0}, 'accuracy': 0.5737704918032787, 'macro avg': {'precision': 0.5180652680652681, 'recall': 0.5200258397932817, 'f1-score': 0.5164634146341464, 'support': 61.0}, 'weighted avg': {'precision': 0.5999847147388132, 'recall': 0.5737704918032787, 'f1-score': 0.5846861255497802, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[ 7 11]
+ [15 28]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 18.0}, 'NonFlaky': {'precision': 0.7049180327868853, 'recall': 1.0, 'f1-score': 0.8269230769230769, 'support': 43.0}, 'accuracy': 0.7049180327868853, 'macro avg': {'precision': 0.3524590163934426, 'recall': 0.5, 'f1-score': 0.41346153846153844, 'support': 61.0}, 'weighted avg': {'precision': 0.4969094329481322, 'recall': 0.7049180327868853, 'f1-score': 0.5829129886506935, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 18]
+ [ 0 43]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.25, 'recall': 0.5, 'f1-score': 0.3333333333333333, 'support': 18.0}, 'NonFlaky': {'precision': 0.64, 'recall': 0.37209302325581395, 'f1-score': 0.4705882352941177, 'support': 43.0}, 'accuracy': 0.4098360655737705, 'macro avg': {'precision': 0.445, 'recall': 0.436046511627907, 'f1-score': 0.4019607843137255, 'support': 61.0}, 'weighted avg': {'precision': 0.5249180327868852, 'recall': 0.4098360655737705, 'f1-score': 0.43008678881388623, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[ 9  9]
+ [27 16]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.2682926829268293, 'recall': 0.6111111111111112, 'f1-score': 0.37288135593220345, 'support': 18.0}, 'NonFlaky': {'precision': 0.65, 'recall': 0.3023255813953488, 'f1-score': 0.4126984126984127, 'support': 43.0}, 'accuracy': 0.39344262295081966, 'macro avg': {'precision': 0.45914634146341465, 'recall': 0.45671834625323, 'f1-score': 0.39278988431530804, 'support': 61.0}, 'weighted avg': {'precision': 0.5373650539784086, 'recall': 0.39344262295081966, 'f1-score': 0.40094911725920335, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[11  7]
+ [30 13]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4166666666666667, 'recall': 0.2777777777777778, 'f1-score': 0.33333333333333337, 'support': 18.0}, 'NonFlaky': {'precision': 0.7346938775510204, 'recall': 0.8372093023255814, 'f1-score': 0.782608695652174, 'support': 43.0}, 'accuracy': 0.6721311475409836, 'macro avg': {'precision': 0.5756802721088435, 'recall': 0.5574935400516796, 'f1-score': 0.5579710144927537, 'support': 61.0}, 'weighted avg': {'precision': 0.6408497825359653, 'recall': 0.6721311475409836, 'f1-score': 0.6500356379187455, 'support': 61.0}}</t>
+  </si>
+  <si>
+    <t>[[ 5 13]
+ [ 7 36]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.34285714285714286, 'recall': 0.6, 'f1-score': 0.43636363636363634, 'support': 20.0}, 'NonFlaky': {'precision': 0.8545454545454545, 'recall': 0.6714285714285714, 'f1-score': 0.752, 'support': 70.0}, 'accuracy': 0.6555555555555556, 'macro avg': {'precision': 0.5987012987012987, 'recall': 0.6357142857142857, 'f1-score': 0.5941818181818181, 'support': 90.0}, 'weighted avg': {'precision': 0.7408369408369408, 'recall': 0.6555555555555554, 'f1-score': 0.6818585858585858, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[12  8]
+ [23 47]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.12698412698412698, 'recall': 0.4, 'f1-score': 0.19277108433734938, 'support': 20.0}, 'NonFlaky': {'precision': 0.5555555555555556, 'recall': 0.21428571428571427, 'f1-score': 0.3092783505154639, 'support': 70.0}, 'accuracy': 0.25555555555555554, 'macro avg': {'precision': 0.3412698412698413, 'recall': 0.30714285714285716, 'f1-score': 0.25102471742640664, 'support': 90.0}, 'weighted avg': {'precision': 0.46031746031746035, 'recall': 0.25555555555555554, 'f1-score': 0.2833878469203273, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[ 8 12]
+ [55 15]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.25, 'recall': 0.4, 'f1-score': 0.3076923076923077, 'support': 20.0}, 'NonFlaky': {'precision': 0.7931034482758621, 'recall': 0.6571428571428571, 'f1-score': 0.71875, 'support': 70.0}, 'accuracy': 0.6, 'macro avg': {'precision': 0.521551724137931, 'recall': 0.5285714285714286, 'f1-score': 0.5132211538461539, 'support': 90.0}, 'weighted avg': {'precision': 0.6724137931034483, 'recall': 0.6, 'f1-score': 0.6274038461538461, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[ 8 12]
+ [24 46]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 20.0}, 'NonFlaky': {'precision': 0.7777777777777778, 'recall': 1.0, 'f1-score': 0.8750000000000001, 'support': 70.0}, 'accuracy': 0.7777777777777778, 'macro avg': {'precision': 0.3888888888888889, 'recall': 0.5, 'f1-score': 0.43750000000000006, 'support': 90.0}, 'weighted avg': {'precision': 0.6049382716049383, 'recall': 0.7777777777777778, 'f1-score': 0.6805555555555556, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 20]
+ [ 0 70]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.18571428571428572, 'recall': 0.65, 'f1-score': 0.28888888888888886, 'support': 20.0}, 'NonFlaky': {'precision': 0.65, 'recall': 0.18571428571428572, 'f1-score': 0.28888888888888886, 'support': 70.0}, 'accuracy': 0.28888888888888886, 'macro avg': {'precision': 0.41785714285714287, 'recall': 0.41785714285714287, 'f1-score': 0.28888888888888886, 'support': 90.0}, 'weighted avg': {'precision': 0.5468253968253969, 'recall': 0.28888888888888886, 'f1-score': 0.28888888888888886, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[13  7]
+ [57 13]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.23636363636363636, 'recall': 0.65, 'f1-score': 0.3466666666666666, 'support': 20.0}, 'NonFlaky': {'precision': 0.8, 'recall': 0.4, 'f1-score': 0.5333333333333333, 'support': 70.0}, 'accuracy': 0.45555555555555555, 'macro avg': {'precision': 0.5181818181818182, 'recall': 0.525, 'f1-score': 0.43999999999999995, 'support': 90.0}, 'weighted avg': {'precision': 0.6747474747474748, 'recall': 0.45555555555555555, 'f1-score': 0.4918518518518518, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[13  7]
+ [42 28]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5, 'recall': 0.2, 'f1-score': 0.28571428571428575, 'support': 20.0}, 'NonFlaky': {'precision': 0.8048780487804879, 'recall': 0.9428571428571428, 'f1-score': 0.868421052631579, 'support': 70.0}, 'accuracy': 0.7777777777777778, 'macro avg': {'precision': 0.6524390243902439, 'recall': 0.5714285714285714, 'f1-score': 0.5770676691729324, 'support': 90.0}, 'weighted avg': {'precision': 0.7371273712737128, 'recall': 0.7777777777777778, 'f1-score': 0.7389306599832915, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[ 4 16]
+ [ 4 66]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.46153846153846156, 'recall': 0.3, 'f1-score': 0.3636363636363637, 'support': 20.0}, 'NonFlaky': {'precision': 0.8181818181818182, 'recall': 0.9, 'f1-score': 0.8571428571428572, 'support': 70.0}, 'accuracy': 0.7666666666666667, 'macro avg': {'precision': 0.6398601398601399, 'recall': 0.6, 'f1-score': 0.6103896103896105, 'support': 90.0}, 'weighted avg': {'precision': 0.738927738927739, 'recall': 0.7666666666666667, 'f1-score': 0.7474747474747475, 'support': 90.0}}</t>
+  </si>
+  <si>
+    <t>[[ 6 14]
+ [ 7 63]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.35135135135135137, 'recall': 0.65, 'f1-score': 0.456140350877193, 'support': 20.0}, 'NonFlaky': {'precision': 0.8292682926829268, 'recall': 0.5862068965517241, 'f1-score': 0.6868686868686867, 'support': 58.0}, 'accuracy': 0.6025641025641025, 'macro avg': {'precision': 0.5903098220171391, 'recall': 0.618103448275862, 'f1-score': 0.5715045188729398, 'support': 78.0}, 'weighted avg': {'precision': 0.706725487213292, 'recall': 0.6025641025641025, 'f1-score': 0.6277075750759961, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>[[13  7]
+ [24 34]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.2903225806451613, 'recall': 0.9, 'f1-score': 0.4390243902439024, 'support': 20.0}, 'NonFlaky': {'precision': 0.875, 'recall': 0.2413793103448276, 'f1-score': 0.3783783783783784, 'support': 58.0}, 'accuracy': 0.41025641025641024, 'macro avg': {'precision': 0.5826612903225806, 'recall': 0.5706896551724138, 'f1-score': 0.4087013843111404, 'support': 78.0}, 'weighted avg': {'precision': 0.7250827129859387, 'recall': 0.41025641025641024, 'f1-score': 0.39392863783107684, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>[[18  2]
+ [44 14]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5333333333333333, 'recall': 0.8, 'f1-score': 0.64, 'support': 20.0}, 'NonFlaky': {'precision': 0.9166666666666666, 'recall': 0.7586206896551724, 'f1-score': 0.830188679245283, 'support': 58.0}, 'accuracy': 0.7692307692307693, 'macro avg': {'precision': 0.725, 'recall': 0.7793103448275862, 'f1-score': 0.7350943396226415, 'support': 78.0}, 'weighted avg': {'precision': 0.8183760683760684, 'recall': 0.7692307692307693, 'f1-score': 0.7814223512336719, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>[[16  4]
+ [14 44]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 20.0}, 'NonFlaky': {'precision': 0.7435897435897436, 'recall': 1.0, 'f1-score': 0.8529411764705882, 'support': 58.0}, 'accuracy': 0.7435897435897436, 'macro avg': {'precision': 0.3717948717948718, 'recall': 0.5, 'f1-score': 0.4264705882352941, 'support': 78.0}, 'weighted avg': {'precision': 0.5529257067718607, 'recall': 0.7435897435897436, 'f1-score': 0.6342383107088989, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0 20]
+ [ 0 58]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3220338983050847, 'recall': 0.95, 'f1-score': 0.48101265822784806, 'support': 20.0}, 'NonFlaky': {'precision': 0.9473684210526315, 'recall': 0.3103448275862069, 'f1-score': 0.4675324675324675, 'support': 58.0}, 'accuracy': 0.47435897435897434, 'macro avg': {'precision': 0.6347011596788581, 'recall': 0.6301724137931034, 'f1-score': 0.4742725628801578, 'support': 78.0}, 'weighted avg': {'precision': 0.7870262357327478, 'recall': 0.47435897435897434, 'f1-score': 0.4709889266851292, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>[[19  1]
+ [40 18]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7777777777777778, 'recall': 0.35, 'f1-score': 0.48275862068965514, 'support': 20.0}, 'NonFlaky': {'precision': 0.8115942028985508, 'recall': 0.9655172413793104, 'f1-score': 0.8818897637795277, 'support': 58.0}, 'accuracy': 0.8076923076923077, 'macro avg': {'precision': 0.7946859903381642, 'recall': 0.6577586206896552, 'f1-score': 0.6823241922345914, 'support': 78.0}, 'weighted avg': {'precision': 0.8029233246624552, 'recall': 0.8076923076923077, 'f1-score': 0.7795484450385347, 'support': 78.0}}</t>
+  </si>
+  <si>
+    <t>[[ 7 13]
+ [ 2 56]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5229885057471264, 'recall': 0.8053097345132744, 'f1-score': 0.6341463414634146, 'support': 113.0}, 'NonFlaky': {'precision': 0.3888888888888889, 'recall': 0.14432989690721648, 'f1-score': 0.21052631578947367, 'support': 97.0}, 'accuracy': 0.5, 'macro avg': {'precision': 0.4559386973180076, 'recall': 0.47481981571024545, 'f1-score': 0.42233632862644416, 'support': 210.0}, 'weighted avg': {'precision': 0.4610472541507024, 'recall': 0.5, 'f1-score': 0.4384742343664038, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[91 22]
+ [83 14]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5862068965517241, 'recall': 0.6017699115044248, 'f1-score': 0.593886462882096, 'support': 113.0}, 'NonFlaky': {'precision': 0.5212765957446809, 'recall': 0.5051546391752577, 'f1-score': 0.5130890052356021, 'support': 97.0}, 'accuracy': 0.5571428571428572, 'macro avg': {'precision': 0.5537417461482025, 'recall': 0.5534622753398413, 'f1-score': 0.5534877340588491, 'support': 210.0}, 'weighted avg': {'precision': 0.5562152814170422, 'recall': 0.5571428571428572, 'f1-score': 0.5565657324453822, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[68 45]
+ [48 49]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6097560975609756, 'recall': 0.4424778761061947, 'f1-score': 0.5128205128205129, 'support': 113.0}, 'NonFlaky': {'precision': 0.5078125, 'recall': 0.6701030927835051, 'f1-score': 0.5777777777777778, 'support': 97.0}, 'accuracy': 0.5476190476190477, 'macro avg': {'precision': 0.5587842987804879, 'recall': 0.55629048444485, 'f1-score': 0.5452991452991454, 'support': 210.0}, 'weighted avg': {'precision': 0.5626678644018583, 'recall': 0.5476190476190477, 'f1-score': 0.5428245828245829, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[50 63]
+ [32 65]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5380952380952381, 'recall': 1.0, 'f1-score': 0.6996904024767803, 'support': 113.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 97.0}, 'accuracy': 0.5380952380952381, 'macro avg': {'precision': 0.26904761904761904, 'recall': 0.5, 'f1-score': 0.34984520123839014, 'support': 210.0}, 'weighted avg': {'precision': 0.289546485260771, 'recall': 0.5380952380952381, 'f1-score': 0.37650007371369604, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[113   0]
+ [ 97   0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5714285714285714, 'recall': 0.5663716814159292, 'f1-score': 0.5688888888888889, 'support': 113.0}, 'NonFlaky': {'precision': 0.5, 'recall': 0.5051546391752577, 'f1-score': 0.5025641025641026, 'support': 97.0}, 'accuracy': 0.5380952380952381, 'macro avg': {'precision': 0.5357142857142857, 'recall': 0.5357631602955935, 'f1-score': 0.5357264957264958, 'support': 210.0}, 'weighted avg': {'precision': 0.5384353741496598, 'recall': 0.5380952380952381, 'f1-score': 0.5382531542531542, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[64 49]
+ [48 49]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6506024096385542, 'recall': 0.4778761061946903, 'f1-score': 0.5510204081632654, 'support': 113.0}, 'NonFlaky': {'precision': 0.5354330708661418, 'recall': 0.7010309278350515, 'f1-score': 0.6071428571428571, 'support': 97.0}, 'accuracy': 0.580952380952381, 'macro avg': {'precision': 0.593017740252348, 'recall': 0.5894535170148709, 'f1-score': 0.5790816326530612, 'support': 210.0}, 'weighted avg': {'precision': 0.5974051436341541, 'recall': 0.580952380952381, 'f1-score': 0.5769436345966957, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[54 59]
+ [29 68]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 113.0}, 'NonFlaky': {'precision': 0.4405940594059406, 'recall': 0.9175257731958762, 'f1-score': 0.5953177257525083, 'support': 97.0}, 'accuracy': 0.4238095238095238, 'macro avg': {'precision': 0.2202970297029703, 'recall': 0.4587628865979381, 'f1-score': 0.29765886287625415, 'support': 210.0}, 'weighted avg': {'precision': 0.2035124941065535, 'recall': 0.4238095238095238, 'f1-score': 0.2749800923713967, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[  0 113]
+ [  8  89]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6, 'recall': 0.02654867256637168, 'f1-score': 0.05084745762711864, 'support': 113.0}, 'NonFlaky': {'precision': 0.4634146341463415, 'recall': 0.979381443298969, 'f1-score': 0.6291390728476821, 'support': 97.0}, 'accuracy': 0.4666666666666667, 'macro avg': {'precision': 0.5317073170731708, 'recall': 0.5029650579326703, 'f1-score': 0.33999326523740037, 'support': 210.0}, 'weighted avg': {'precision': 0.536910569105691, 'recall': 0.4666666666666667, 'f1-score': 0.3179631084670932, 'support': 210.0}}</t>
+  </si>
+  <si>
+    <t>[[  3 110]
+ [  2  95]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7456445993031359, 'recall': 0.7278911564625851, 'f1-score': 0.7366609294320138, 'support': 294.0}, 'NonFlaky': {'precision': 0.8081534772182254, 'recall': 0.8219512195121951, 'f1-score': 0.8149939540507859, 'support': 410.0}, 'accuracy': 0.7826704545454546, 'macro avg': {'precision': 0.7768990382606806, 'recall': 0.7749211879873901, 'f1-score': 0.7758274417413998, 'support': 704.0}, 'weighted avg': {'precision': 0.7820489174070943, 'recall': 0.7826704545454546, 'f1-score': 0.7822810147923782, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[214  80]
+ [ 73 337]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9446366782006921, 'recall': 0.9285714285714286, 'f1-score': 0.9365351629502574, 'support': 294.0}, 'NonFlaky': {'precision': 0.9493975903614458, 'recall': 0.9609756097560975, 'f1-score': 0.9551515151515151, 'support': 410.0}, 'accuracy': 0.9474431818181818, 'macro avg': {'precision': 0.9470171342810689, 'recall': 0.9447735191637631, 'f1-score': 0.9458433390508862, 'support': 704.0}, 'weighted avg': {'precision': 0.9474093685215856, 'recall': 0.9474431818181818, 'f1-score': 0.9473770726129217, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[273  21]
+ [ 16 394]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9440559440559441, 'recall': 0.9183673469387755, 'f1-score': 0.9310344827586208, 'support': 294.0}, 'NonFlaky': {'precision': 0.9425837320574163, 'recall': 0.9609756097560975, 'f1-score': 0.9516908212560385, 'support': 410.0}, 'accuracy': 0.9431818181818182, 'macro avg': {'precision': 0.9433198380566802, 'recall': 0.9396714783474365, 'f1-score': 0.9413626520073297, 'support': 704.0}, 'weighted avg': {'precision': 0.9431985478636197, 'recall': 0.9431818181818182, 'f1-score': 0.9430644526221738, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[270  24]
+ [ 16 394]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4182076813655761, 'recall': 1.0, 'f1-score': 0.5897693079237714, 'support': 294.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.0024390243902439024, 'f1-score': 0.004866180048661801, 'support': 410.0}, 'accuracy': 0.4190340909090909, 'macro avg': {'precision': 0.7091038406827881, 'recall': 0.501219512195122, 'f1-score': 0.2973177439862166, 'support': 704.0}, 'weighted avg': {'precision': 0.7570355942066468, 'recall': 0.4190340909090909, 'f1-score': 0.2491297022010513, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[294   0]
+ [409   1]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9383561643835616, 'recall': 0.9319727891156463, 'f1-score': 0.9351535836177475, 'support': 294.0}, 'NonFlaky': {'precision': 0.9514563106796117, 'recall': 0.9560975609756097, 'f1-score': 0.953771289537713, 'support': 410.0}, 'accuracy': 0.9460227272727273, 'macro avg': {'precision': 0.9449062375315866, 'recall': 0.944035175045628, 'f1-score': 0.9444624365777302, 'support': 704.0}, 'weighted avg': {'precision': 0.9459855109480224, 'recall': 0.9460227272727273, 'f1-score': 0.9459962816677273, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[274  20]
+ [ 18 392]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8701298701298701, 'recall': 0.9115646258503401, 'f1-score': 0.8903654485049834, 'support': 294.0}, 'NonFlaky': {'precision': 0.9343434343434344, 'recall': 0.9024390243902439, 'f1-score': 0.9181141439205955, 'support': 410.0}, 'accuracy': 0.90625, 'macro avg': {'precision': 0.9022366522366523, 'recall': 0.907001825120292, 'f1-score': 0.9042397962127895, 'support': 704.0}, 'weighted avg': {'precision': 0.9075269742883378, 'recall': 0.90625, 'f1-score': 0.9065259103237348, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[268  26]
+ [ 40 370]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8956228956228957, 'recall': 0.9047619047619048, 'f1-score': 0.9001692047377328, 'support': 294.0}, 'NonFlaky': {'precision': 0.9312039312039312, 'recall': 0.9243902439024391, 'f1-score': 0.9277845777233782, 'support': 410.0}, 'accuracy': 0.9161931818181818, 'macro avg': {'precision': 0.9134134134134134, 'recall': 0.9145760743321719, 'f1-score': 0.9139768912305555, 'support': 704.0}, 'weighted avg': {'precision': 0.916344805549351, 'recall': 0.9161931818181818, 'f1-score': 0.9162520213913047, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[266  28]
+ [ 31 379]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9172185430463576, 'recall': 0.9421768707482994, 'f1-score': 0.9295302013422819, 'support': 294.0}, 'NonFlaky': {'precision': 0.9577114427860697, 'recall': 0.9390243902439024, 'f1-score': 0.9482758620689654, 'support': 410.0}, 'accuracy': 0.9403409090909091, 'macro avg': {'precision': 0.9374649929162137, 'recall': 0.9406006304961009, 'f1-score': 0.9389030317056237, 'support': 704.0}, 'weighted avg': {'precision': 0.9408010556788604, 'recall': 0.9403409090909091, 'f1-score': 0.9404474185268561, 'support': 704.0}}</t>
+  </si>
+  <si>
+    <t>[[277  17]
+ [ 25 385]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.75, 'recall': 0.84, 'f1-score': 0.7924528301886793, 'support': 50.0}, 'NonFlaky': {'precision': 0.8961038961038961, 'recall': 0.8313253012048193, 'f1-score': 0.8624999999999999, 'support': 83.0}, 'accuracy': 0.8345864661654135, 'macro avg': {'precision': 0.823051948051948, 'recall': 0.8356626506024096, 'f1-score': 0.8274764150943397, 'support': 133.0}, 'weighted avg': {'precision': 0.8411776193731081, 'recall': 0.8345864661654135, 'f1-score': 0.836166477514541, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[42  8]
+ [14 69]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9019607843137255, 'recall': 0.92, 'f1-score': 0.9108910891089109, 'support': 50.0}, 'NonFlaky': {'precision': 0.9512195121951219, 'recall': 0.9397590361445783, 'f1-score': 0.9454545454545454, 'support': 83.0}, 'accuracy': 0.9323308270676691, 'macro avg': {'precision': 0.9265901482544237, 'recall': 0.9298795180722892, 'f1-score': 0.9281728172817282, 'support': 133.0}, 'weighted avg': {'precision': 0.9327011934427174, 'recall': 0.9323308270676691, 'f1-score': 0.9324607648734798, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[46  4]
+ [ 5 78]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9487179487179487, 'recall': 0.74, 'f1-score': 0.8314606741573033, 'support': 50.0}, 'NonFlaky': {'precision': 0.8617021276595744, 'recall': 0.9759036144578314, 'f1-score': 0.9152542372881356, 'support': 83.0}, 'accuracy': 0.8872180451127819, 'macro avg': {'precision': 0.9052100381887616, 'recall': 0.8579518072289156, 'f1-score': 0.8733574557227195, 'support': 133.0}, 'weighted avg': {'precision': 0.8944148423431738, 'recall': 0.8872180451127819, 'f1-score': 0.8837528977652663, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[37 13]
+ [ 2 81]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3787878787878788, 'recall': 1.0, 'f1-score': 0.5494505494505494, 'support': 50.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.012048192771084338, 'f1-score': 0.02380952380952381, 'support': 83.0}, 'accuracy': 0.38345864661654133, 'macro avg': {'precision': 0.6893939393939394, 'recall': 0.5060240963855421, 'f1-score': 0.2866300366300366, 'support': 133.0}, 'weighted avg': {'precision': 0.7664616085668717, 'recall': 0.38345864661654133, 'f1-score': 0.22141893194524773, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[50  0]
+ [82  1]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9166666666666666, 'recall': 0.88, 'f1-score': 0.8979591836734694, 'support': 50.0}, 'NonFlaky': {'precision': 0.9294117647058824, 'recall': 0.9518072289156626, 'f1-score': 0.9404761904761904, 'support': 83.0}, 'accuracy': 0.924812030075188, 'macro avg': {'precision': 0.9230392156862746, 'recall': 0.9159036144578313, 'f1-score': 0.9192176870748299, 'support': 133.0}, 'weighted avg': {'precision': 0.9246203744655757, 'recall': 0.924812030075188, 'f1-score': 0.9244923533323103, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[44  6]
+ [ 4 79]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9743589743589743, 'recall': 0.76, 'f1-score': 0.853932584269663, 'support': 50.0}, 'NonFlaky': {'precision': 0.8723404255319149, 'recall': 0.9879518072289156, 'f1-score': 0.9265536723163843, 'support': 83.0}, 'accuracy': 0.9022556390977443, 'macro avg': {'precision': 0.9233496999454447, 'recall': 0.8739759036144579, 'f1-score': 0.8902431282930237, 'support': 133.0}, 'weighted avg': {'precision': 0.9106932634368246, 'recall': 0.9022556390977443, 'f1-score': 0.8992525113965643, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[38 12]
+ [ 1 82]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7666666666666667, 'recall': 0.92, 'f1-score': 0.8363636363636363, 'support': 50.0}, 'NonFlaky': {'precision': 0.9452054794520548, 'recall': 0.8313253012048193, 'f1-score': 0.8846153846153847, 'support': 83.0}, 'accuracy': 0.8646616541353384, 'macro avg': {'precision': 0.8559360730593608, 'recall': 0.8756626506024097, 'f1-score': 0.8604895104895105, 'support': 133.0}, 'weighted avg': {'precision': 0.8780856250214577, 'recall': 0.8646616541353384, 'f1-score': 0.8664756296335244, 'support': 133.0}}</t>
+  </si>
+  <si>
+    <t>[[46  4]
+ [14 69]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8059701492537313, 'recall': 0.7297297297297297, 'f1-score': 0.7659574468085106, 'support': 296.0}, 'NonFlaky': {'precision': 0.7948717948717948, 'recall': 0.856353591160221, 'f1-score': 0.824468085106383, 'support': 362.0}, 'accuracy': 0.7993920972644377, 'macro avg': {'precision': 0.8004209720627631, 'recall': 0.7930416604449754, 'f1-score': 0.7952127659574468, 'support': 658.0}, 'weighted avg': {'precision': 0.799864367663669, 'recall': 0.7993920972644377, 'f1-score': 0.7981471900666106, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[216  80]
+ [ 52 310]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9489795918367347, 'recall': 0.9425675675675675, 'f1-score': 0.9457627118644069, 'support': 296.0}, 'NonFlaky': {'precision': 0.9532967032967034, 'recall': 0.9585635359116023, 'f1-score': 0.9559228650137742, 'support': 362.0}, 'accuracy': 0.9513677811550152, 'macro avg': {'precision': 0.9511381475667191, 'recall': 0.9505655517395849, 'f1-score': 0.9508427884390905, 'support': 658.0}, 'weighted avg': {'precision': 0.9513546592356841, 'recall': 0.9513677811550152, 'f1-score': 0.951352340192782, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[279  17]
+ [ 15 347]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9295302013422819, 'recall': 0.9358108108108109, 'f1-score': 0.9326599326599327, 'support': 296.0}, 'NonFlaky': {'precision': 0.9472222222222222, 'recall': 0.9419889502762431, 'f1-score': 0.9445983379501385, 'support': 362.0}, 'accuracy': 0.939209726443769, 'macro avg': {'precision': 0.9383762117822521, 'recall': 0.9388998805435269, 'f1-score': 0.9386291353050356, 'support': 658.0}, 'weighted avg': {'precision': 0.9392635015832218, 'recall': 0.939209726443769, 'f1-score': 0.9392278699168545, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[277  19]
+ [ 21 341]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.46105919003115264, 'recall': 1.0, 'f1-score': 0.6311300639658848, 'support': 296.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.04419889502762431, 'f1-score': 0.08465608465608467, 'support': 362.0}, 'accuracy': 0.47416413373860183, 'macro avg': {'precision': 0.7305295950155763, 'recall': 0.5220994475138121, 'f1-score': 0.3578930743109847, 'support': 658.0}, 'weighted avg': {'precision': 0.7575585414121903, 'recall': 0.47416413373860183, 'f1-score': 0.3304863245887607, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[296   0]
+ [346  16]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9368770764119602, 'recall': 0.9527027027027027, 'f1-score': 0.9447236180904524, 'support': 296.0}, 'NonFlaky': {'precision': 0.9607843137254902, 'recall': 0.9475138121546961, 'f1-score': 0.9541029207232267, 'support': 362.0}, 'accuracy': 0.9498480243161094, 'macro avg': {'precision': 0.9488306950687252, 'recall': 0.9501082574286994, 'f1-score': 0.9494132694068396, 'support': 658.0}, 'weighted avg': {'precision': 0.9500296902531423, 'recall': 0.9498480243161094, 'f1-score': 0.9498836599644104, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[282  14]
+ [ 19 343]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9158249158249159, 'recall': 0.918918918918919, 'f1-score': 0.9173693086003373, 'support': 296.0}, 'NonFlaky': {'precision': 0.9335180055401662, 'recall': 0.930939226519337, 'f1-score': 0.9322268326417704, 'support': 362.0}, 'accuracy': 0.925531914893617, 'macro avg': {'precision': 0.924671460682541, 'recall': 0.9249290727191279, 'f1-score': 0.9247980706210539, 'support': 658.0}, 'weighted avg': {'precision': 0.9255588040877132, 'recall': 0.925531914893617, 'f1-score': 0.9255432048055026, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[272  24]
+ [ 25 337]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9169435215946844, 'recall': 0.9324324324324325, 'f1-score': 0.9246231155778895, 'support': 296.0}, 'NonFlaky': {'precision': 0.9439775910364145, 'recall': 0.930939226519337, 'f1-score': 0.937413073713491, 'support': 362.0}, 'accuracy': 0.9316109422492401, 'macro avg': {'precision': 0.9304605563155495, 'recall': 0.9316858294758847, 'f1-score': 0.9310180946456903, 'support': 658.0}, 'weighted avg': {'precision': 0.9318163683088279, 'recall': 0.9316109422492401, 'f1-score': 0.931659536315105, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[276  20]
+ [ 25 337]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9073482428115016, 'recall': 0.9594594594594594, 'f1-score': 0.9326765188834154, 'support': 296.0}, 'NonFlaky': {'precision': 0.9652173913043478, 'recall': 0.919889502762431, 'f1-score': 0.942008486562942, 'support': 362.0}, 'accuracy': 0.9376899696048632, 'macro avg': {'precision': 0.9362828170579247, 'recall': 0.9396744811109452, 'f1-score': 0.9373425027231788, 'support': 658.0}, 'weighted avg': {'precision': 0.9391850691859854, 'recall': 0.9376899696048632, 'f1-score': 0.9378105193393252, 'support': 658.0}}</t>
+  </si>
+  <si>
+    <t>[[284  12]
+ [ 29 333]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7217391304347827, 'recall': 0.6666666666666666, 'f1-score': 0.6931106471816284, 'support': 249.0}, 'NonFlaky': {'precision': 0.7694444444444445, 'recall': 0.8123167155425219, 'f1-score': 0.7902995720399429, 'support': 341.0}, 'accuracy': 0.7508474576271187, 'macro avg': {'precision': 0.7455917874396136, 'recall': 0.7394916911045943, 'f1-score': 0.7417051096107856, 'support': 590.0}, 'weighted avg': {'precision': 0.7493111848030788, 'recall': 0.7508474576271187, 'f1-score': 0.7492825512099085, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[166  83]
+ [ 64 277]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9512195121951219, 'recall': 0.9397590361445783, 'f1-score': 0.9454545454545454, 'support': 249.0}, 'NonFlaky': {'precision': 0.9563953488372093, 'recall': 0.9648093841642229, 'f1-score': 0.9605839416058394, 'support': 341.0}, 'accuracy': 0.9542372881355933, 'macro avg': {'precision': 0.9538074305161657, 'recall': 0.9522842101544007, 'f1-score': 0.9530192435301924, 'support': 590.0}, 'weighted avg': {'precision': 0.9542109703221588, 'recall': 0.9542372881355933, 'f1-score': 0.9541988235691069, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[234  15]
+ [ 12 329]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9495798319327731, 'recall': 0.9076305220883534, 'f1-score': 0.9281314168377823, 'support': 249.0}, 'NonFlaky': {'precision': 0.9346590909090909, 'recall': 0.9648093841642229, 'f1-score': 0.9494949494949496, 'support': 341.0}, 'accuracy': 0.940677966101695, 'macro avg': {'precision': 0.9421194614209321, 'recall': 0.9362199531262881, 'f1-score': 0.938813183166366, 'support': 590.0}, 'weighted avg': {'precision': 0.940956149408916, 'recall': 0.940677966101695, 'f1-score': 0.9404788145260774, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[226  23]
+ [ 12 329]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.43005181347150256, 'recall': 1.0, 'f1-score': 0.6014492753623188, 'support': 249.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.03225806451612903, 'f1-score': 0.0625, 'support': 341.0}, 'accuracy': 0.4406779661016949, 'macro avg': {'precision': 0.7150259067357513, 'recall': 0.5161290322580645, 'f1-score': 0.3319746376811594, 'support': 590.0}, 'weighted avg': {'precision': 0.7594625450074647, 'recall': 0.4406779661016949, 'f1-score': 0.28995486366986, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[249   0]
+ [330  11]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9251968503937008, 'recall': 0.9437751004016064, 'f1-score': 0.9343936381709742, 'support': 249.0}, 'NonFlaky': {'precision': 0.9583333333333334, 'recall': 0.9442815249266863, 'f1-score': 0.9512555391432792, 'support': 341.0}, 'accuracy': 0.9440677966101695, 'macro avg': {'precision': 0.9417650918635171, 'recall': 0.9440283126641463, 'f1-score': 0.9428245886571267, 'support': 590.0}, 'weighted avg': {'precision': 0.9443486142622003, 'recall': 0.9440677966101695, 'f1-score': 0.9441392453431031, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[235  14]
+ [ 19 322]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9215686274509803, 'recall': 0.9437751004016064, 'f1-score': 0.9325396825396824, 'support': 249.0}, 'NonFlaky': {'precision': 0.9582089552238806, 'recall': 0.9413489736070382, 'f1-score': 0.9497041420118344, 'support': 341.0}, 'accuracy': 0.9423728813559322, 'macro avg': {'precision': 0.9398887913374305, 'recall': 0.9425620370043223, 'f1-score': 0.9411219122757584, 'support': 590.0}, 'weighted avg': {'precision': 0.9427454948587075, 'recall': 0.9423728813559322, 'f1-score': 0.9424601582685025, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[235  14]
+ [ 20 321]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9473684210526315, 'recall': 0.9397590361445783, 'f1-score': 0.9435483870967742, 'support': 249.0}, 'NonFlaky': {'precision': 0.956268221574344, 'recall': 0.9618768328445748, 'f1-score': 0.9590643274853802, 'support': 341.0}, 'accuracy': 0.9525423728813559, 'macro avg': {'precision': 0.9518183213134878, 'recall': 0.9508179344945766, 'f1-score': 0.9513063572910772, 'support': 590.0}, 'weighted avg': {'precision': 0.9525122040660281, 'recall': 0.9525423728813559, 'f1-score': 0.9525160746773075, 'support': 590.0}}</t>
+  </si>
+  <si>
+    <t>[[234  15]
+ [ 13 328]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6666666666666666, 'recall': 1.0, 'f1-score': 0.8, 'support': 2.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.96, 'f1-score': 0.9795918367346939, 'support': 25.0}, 'accuracy': 0.9629629629629629, 'macro avg': {'precision': 0.8333333333333333, 'recall': 0.98, 'f1-score': 0.889795918367347, 'support': 27.0}, 'weighted avg': {'precision': 0.9753086419753086, 'recall': 0.9629629629629629, 'f1-score': 0.9662887377173092, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[ 2  0]
+ [ 1 24]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.07407407407407407, 'recall': 1.0, 'f1-score': 0.13793103448275862, 'support': 2.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 25.0}, 'accuracy': 0.07407407407407407, 'macro avg': {'precision': 0.037037037037037035, 'recall': 0.5, 'f1-score': 0.06896551724137931, 'support': 27.0}, 'weighted avg': {'precision': 0.0054869684499314125, 'recall': 0.07407407407407407, 'f1-score': 0.010217113665389528, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[ 2  0]
+ [25  0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.5, 'recall': 1.0, 'f1-score': 0.6666666666666666, 'support': 2.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.92, 'f1-score': 0.9583333333333334, 'support': 25.0}, 'accuracy': 0.9259259259259259, 'macro avg': {'precision': 0.75, 'recall': 0.96, 'f1-score': 0.8125, 'support': 27.0}, 'weighted avg': {'precision': 0.9629629629629629, 'recall': 0.9259259259259259, 'f1-score': 0.9367283950617284, 'support': 27.0}}</t>
+  </si>
+  <si>
+    <t>[[ 2  0]
+ [ 2 23]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 1.0, 'f1-score': 1.0, 'support': 4.0}, 'NonFlaky': {'precision': 1.0, 'recall': 1.0, 'f1-score': 1.0, 'support': 20.0}, 'accuracy': 1.0, 'macro avg': {'precision': 1.0, 'recall': 1.0, 'f1-score': 1.0, 'support': 24.0}, 'weighted avg': {'precision': 1.0, 'recall': 1.0, 'f1-score': 1.0, 'support': 24.0}}</t>
+  </si>
+  <si>
+    <t>[[ 4  0]
+ [ 0 20]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 1.0, 'recall': 0.25, 'f1-score': 0.4, 'support': 4.0}, 'NonFlaky': {'precision': 0.8695652173913043, 'recall': 1.0, 'f1-score': 0.9302325581395349, 'support': 20.0}, 'accuracy': 0.875, 'macro avg': {'precision': 0.9347826086956521, 'recall': 0.625, 'f1-score': 0.6651162790697674, 'support': 24.0}, 'weighted avg': {'precision': 0.8913043478260869, 'recall': 0.875, 'f1-score': 0.8418604651162792, 'support': 24.0}}</t>
+  </si>
+  <si>
+    <t>[[ 1  3]
+ [ 0 20]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 4.0}, 'NonFlaky': {'precision': 0.8333333333333334, 'recall': 1.0, 'f1-score': 0.9090909090909091, 'support': 20.0}, 'accuracy': 0.8333333333333334, 'macro avg': {'precision': 0.4166666666666667, 'recall': 0.5, 'f1-score': 0.45454545454545453, 'support': 24.0}, 'weighted avg': {'precision': 0.6944444444444445, 'recall': 0.8333333333333334, 'f1-score': 0.7575757575757575, 'support': 24.0}}</t>
+  </si>
+  <si>
+    <t>[[ 0  4]
+ [ 0 20]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8, 'recall': 1.0, 'f1-score': 0.888888888888889, 'support': 4.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.95, 'f1-score': 0.9743589743589743, 'support': 20.0}, 'accuracy': 0.9583333333333334, 'macro avg': {'precision': 0.9, 'recall': 0.975, 'f1-score': 0.9316239316239316, 'support': 24.0}, 'weighted avg': {'precision': 0.9666666666666667, 'recall': 0.9583333333333334, 'f1-score': 0.9601139601139601, 'support': 24.0}}</t>
+  </si>
+  <si>
+    <t>[[ 4  0]
+ [ 1 19]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9230769230769231, 'recall': 0.96, 'f1-score': 0.9411764705882353, 'support': 25.0}, 'NonFlaky': {'precision': 0.972972972972973, 'recall': 0.9473684210526315, 'f1-score': 0.9599999999999999, 'support': 38.0}, 'accuracy': 0.9523809523809523, 'macro avg': {'precision': 0.9480249480249481, 'recall': 0.9536842105263157, 'f1-score': 0.9505882352941175, 'support': 63.0}, 'weighted avg': {'precision': 0.9531729531729531, 'recall': 0.9523809523809523, 'f1-score': 0.9525303454715218, 'support': 63.0}}</t>
+  </si>
+  <si>
+    <t>[[24  1]
+ [ 2 36]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9259259259259259, 'recall': 1.0, 'f1-score': 0.9615384615384615, 'support': 25.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.9473684210526315, 'f1-score': 0.972972972972973, 'support': 38.0}, 'accuracy': 0.9682539682539683, 'macro avg': {'precision': 0.962962962962963, 'recall': 0.9736842105263157, 'f1-score': 0.9672557172557172, 'support': 63.0}, 'weighted avg': {'precision': 0.9706055261610818, 'recall': 0.9682539682539683, 'f1-score': 0.9684354684354685, 'support': 63.0}}</t>
+  </si>
+  <si>
+    <t>[[25  0]
+ [ 2 36]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.6410256410256411, 'recall': 1.0, 'f1-score': 0.7812500000000001, 'support': 25.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.631578947368421, 'f1-score': 0.7741935483870968, 'support': 38.0}, 'accuracy': 0.7777777777777778, 'macro avg': {'precision': 0.8205128205128205, 'recall': 0.8157894736842105, 'f1-score': 0.7777217741935485, 'support': 63.0}, 'weighted avg': {'precision': 0.8575498575498575, 'recall': 0.7777777777777778, 'f1-score': 0.7769937275985663, 'support': 63.0}}</t>
+  </si>
+  <si>
+    <t>[[25  0]
+ [14 24]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.3968253968253968, 'recall': 1.0, 'f1-score': 0.5681818181818182, 'support': 25.0}, 'NonFlaky': {'precision': 0.0, 'recall': 0.0, 'f1-score': 0.0, 'support': 38.0}, 'accuracy': 0.3968253968253968, 'macro avg': {'precision': 0.1984126984126984, 'recall': 0.5, 'f1-score': 0.2840909090909091, 'support': 63.0}, 'weighted avg': {'precision': 0.15747039556563366, 'recall': 0.3968253968253968, 'f1-score': 0.22546897546897549, 'support': 63.0}}</t>
+  </si>
+  <si>
+    <t>[[25  0]
+ [38  0]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9615384615384616, 'recall': 1.0, 'f1-score': 0.9803921568627451, 'support': 25.0}, 'NonFlaky': {'precision': 1.0, 'recall': 0.9736842105263158, 'f1-score': 0.9866666666666666, 'support': 38.0}, 'accuracy': 0.9841269841269841, 'macro avg': {'precision': 0.9807692307692308, 'recall': 0.986842105263158, 'f1-score': 0.9835294117647058, 'support': 63.0}, 'weighted avg': {'precision': 0.9847374847374848, 'recall': 0.9841269841269841, 'f1-score': 0.9841767818238406, 'support': 63.0}}</t>
+  </si>
+  <si>
+    <t>[[25  0]
+ [ 1 37]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.8461538461538461, 'recall': 0.88, 'f1-score': 0.8627450980392156, 'support': 25.0}, 'NonFlaky': {'precision': 0.918918918918919, 'recall': 0.8947368421052632, 'f1-score': 0.9066666666666667, 'support': 38.0}, 'accuracy': 0.8888888888888888, 'macro avg': {'precision': 0.8825363825363826, 'recall': 0.8873684210526316, 'f1-score': 0.8847058823529412, 'support': 63.0}, 'weighted avg': {'precision': 0.8900438900438901, 'recall': 0.8888888888888888, 'f1-score': 0.8892374727668845, 'support': 63.0}}</t>
+  </si>
+  <si>
+    <t>[[22  3]
+ [ 4 34]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.7833333333333333, 'recall': 0.7430830039525692, 'f1-score': 0.7626774847870182, 'support': 253.0}, 'NonFlaky': {'precision': 0.8042168674698795, 'recall': 0.8369905956112853, 'f1-score': 0.8202764976958525, 'support': 319.0}, 'accuracy': 0.7954545454545454, 'macro avg': {'precision': 0.7937751004016065, 'recall': 0.7900367997819273, 'f1-score': 0.7914769912414354, 'support': 572.0}, 'weighted avg': {'precision': 0.794979919678715, 'recall': 0.7954545454545454, 'f1-score': 0.7948000112169451, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[188  65]
+ [ 52 267]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9673469387755103, 'recall': 0.9367588932806324, 'f1-score': 0.9518072289156628, 'support': 253.0}, 'NonFlaky': {'precision': 0.9510703363914373, 'recall': 0.9749216300940439, 'f1-score': 0.9628482972136223, 'support': 319.0}, 'accuracy': 0.958041958041958, 'macro avg': {'precision': 0.9592086375834739, 'recall': 0.9558402616873382, 'f1-score': 0.9573277630646426, 'support': 572.0}, 'weighted avg': {'precision': 0.9582696028305464, 'recall': 0.958041958041958, 'f1-score': 0.9579647477741403, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[237  16]
+ [  8 311]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9556451612903226, 'recall': 0.9367588932806324, 'f1-score': 0.9461077844311377, 'support': 253.0}, 'NonFlaky': {'precision': 0.9506172839506173, 'recall': 0.9655172413793104, 'f1-score': 0.9580093312597202, 'support': 319.0}, 'accuracy': 0.9527972027972028, 'macro avg': {'precision': 0.95313122262047, 'recall': 0.9511380673299714, 'f1-score': 0.952058557845429, 'support': 572.0}, 'weighted avg': {'precision': 0.9528411527739485, 'recall': 0.9527972027972028, 'f1-score': 0.9527451855470781, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[237  16]
+ [ 11 308]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.4548736462093863, 'recall': 0.9960474308300395, 'f1-score': 0.6245353159851301, 'support': 253.0}, 'NonFlaky': {'precision': 0.9444444444444444, 'recall': 0.05329153605015674, 'f1-score': 0.10089020771513355, 'support': 319.0}, 'accuracy': 0.47027972027972026, 'macro avg': {'precision': 0.6996590453269154, 'recall': 0.5246694834400981, 'f1-score': 0.36271276185013185, 'support': 572.0}, 'weighted avg': {'precision': 0.727903514455861, 'recall': 0.47027972027972026, 'f1-score': 0.33250246714224746, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[252   1]
+ [302  17]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.967479674796748, 'recall': 0.9407114624505929, 'f1-score': 0.9539078156312625, 'support': 253.0}, 'NonFlaky': {'precision': 0.9539877300613497, 'recall': 0.9749216300940439, 'f1-score': 0.9643410852713179, 'support': 319.0}, 'accuracy': 0.9597902097902098, 'macro avg': {'precision': 0.9607337024290489, 'recall': 0.9578165462723184, 'f1-score': 0.9591244504512901, 'support': 572.0}, 'weighted avg': {'precision': 0.9599553210020068, 'recall': 0.9597902097902098, 'f1-score': 0.959726369853601, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[238  15]
+ [  8 311]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.94140625, 'recall': 0.9525691699604744, 'f1-score': 0.9469548133595285, 'support': 253.0}, 'NonFlaky': {'precision': 0.9620253164556962, 'recall': 0.9529780564263323, 'f1-score': 0.95748031496063, 'support': 319.0}, 'accuracy': 0.9527972027972028, 'macro avg': {'precision': 0.9517157832278481, 'recall': 0.9527736131934033, 'f1-score': 0.9522175641600792, 'support': 572.0}, 'weighted avg': {'precision': 0.9529053447541382, 'recall': 0.9527972027972028, 'f1-score': 0.952824804637066, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[241  12]
+ [ 15 304]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9083969465648855, 'recall': 0.9407114624505929, 'f1-score': 0.9242718446601942, 'support': 253.0}, 'NonFlaky': {'precision': 0.9516129032258065, 'recall': 0.9247648902821317, 'f1-score': 0.9379968203497616, 'support': 319.0}, 'accuracy': 0.9318181818181818, 'macro avg': {'precision': 0.9300049248953459, 'recall': 0.9327381763663622, 'f1-score': 0.9311343325049779, 'support': 572.0}, 'weighted avg': {'precision': 0.9324981531642451, 'recall': 0.9318181818181818, 'f1-score': 0.9319261580255299, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[238  15]
+ [ 24 295]]</t>
+  </si>
+  <si>
+    <t>{'Flaky': {'precision': 0.9453125, 'recall': 0.9565217391304348, 'f1-score': 0.9508840864440079, 'support': 253.0}, 'NonFlaky': {'precision': 0.9651898734177216, 'recall': 0.9561128526645768, 'f1-score': 0.9606299212598425, 'support': 319.0}, 'accuracy': 0.9562937062937062, 'macro avg': {'precision': 0.9552511867088608, 'recall': 0.9563172958975058, 'f1-score': 0.9557570038519252, 'support': 572.0}, 'weighted avg': {'precision': 0.9563979582521908, 'recall': 0.9562937062937062, 'f1-score': 0.9563192635528388, 'support': 572.0}}</t>
+  </si>
+  <si>
+    <t>[[242  11]
+ [ 14 305]]</t>
   </si>
 </sst>
 </file>
@@ -2367,8 +3111,8 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:A57"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4066,17 +4810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F141A-4ACA-0C49-8B35-C58E9F1E973C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5749225-216B-C447-84F8-7889D13B2B48}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="24" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -4109,22 +4850,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.96318680491895414</v>
+        <v>0.95631926355283881</v>
       </c>
       <c r="D2">
-        <v>0.96325459317585305</v>
+        <v>0.95629370629370625</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>743</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>742</v>
       </c>
       <c r="G2">
-        <v>0.99519230769230771</v>
+        <v>0.99389767925954375</v>
       </c>
       <c r="H2">
-        <v>0.92453084733738611</v>
+        <v>0.91156785918135108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -4133,22 +4874,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.95015237025055888</v>
+        <v>0.93192615802552992</v>
       </c>
       <c r="D3">
-        <v>0.95013123359580054</v>
+        <v>0.93181818181818177</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>741</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>740</v>
       </c>
       <c r="G3">
-        <v>0.94925056561085974</v>
+        <v>0.93273817636636236</v>
       </c>
       <c r="H3">
-        <v>0.89773979698144246</v>
+        <v>0.86273877165168966</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -4157,22 +4898,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.96847582986343961</v>
+        <v>0.95282480463706598</v>
       </c>
       <c r="D4">
-        <v>0.96850393700787396</v>
+        <v>0.95279720279720281</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>739</v>
       </c>
       <c r="F4" t="s">
-        <v>229</v>
+        <v>738</v>
       </c>
       <c r="G4">
-        <v>0.96674208144796381</v>
+        <v>0.95268068445116294</v>
       </c>
       <c r="H4">
-        <v>0.93529344094283917</v>
+        <v>0.90448877783764892</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4181,22 +4922,22 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.9603587825137494</v>
+        <v>0.95972636985360105</v>
       </c>
       <c r="D5">
-        <v>0.96062992125984248</v>
+        <v>0.95979020979020979</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>737</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>736</v>
       </c>
       <c r="G5">
-        <v>0.97980769230769227</v>
+        <v>0.99416407498729975</v>
       </c>
       <c r="H5">
-        <v>0.92058411582325139</v>
+        <v>0.91854561649887634</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -4205,22 +4946,22 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.96318680491895414</v>
+        <v>0.33250246714224752</v>
       </c>
       <c r="D6">
-        <v>0.96325459317585305</v>
+        <v>0.47027972027972031</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>735</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>734</v>
       </c>
       <c r="G6">
-        <v>0.96056278280542995</v>
+        <v>0.52466948344009812</v>
       </c>
       <c r="H6">
-        <v>0.92453084733738611</v>
+        <v>0.14036360657033781</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4229,22 +4970,22 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.95512811750456872</v>
+        <v>0.9527451855470781</v>
       </c>
       <c r="D7">
-        <v>0.95538057742782156</v>
+        <v>0.95279720279720281</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>733</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>732</v>
       </c>
       <c r="G7">
-        <v>0.98215497737556567</v>
+        <v>0.99138860321905165</v>
       </c>
       <c r="H7">
-        <v>0.90916482380416741</v>
+        <v>0.90426709332998678</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4253,22 +4994,22 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.94166615654471353</v>
+        <v>0.95796474777414031</v>
       </c>
       <c r="D8">
-        <v>0.94225721784776906</v>
+        <v>0.95804195804195802</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>731</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>730</v>
       </c>
       <c r="G8">
-        <v>0.9716628959276018</v>
+        <v>0.99376757902040713</v>
       </c>
       <c r="H8">
-        <v>0.88390570204379826</v>
+        <v>0.91504269960507689</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4277,22 +5018,22 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.80323304046273247</v>
+        <v>0.7948000112169451</v>
       </c>
       <c r="D9">
-        <v>0.80314960629921262</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>729</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>728</v>
       </c>
       <c r="G9">
-        <v>0.79625282805429864</v>
+        <v>0.79374155897257981</v>
       </c>
       <c r="H9">
-        <v>0.5962986036227812</v>
+        <v>0.58379993140149056</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4303,22 +5044,22 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.92918754620882282</v>
+        <v>0.90578231292516997</v>
       </c>
       <c r="D10">
-        <v>0.9285714285714286</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="E10" t="s">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.99894736842105269</v>
       </c>
       <c r="H10">
-        <v>0.86486993241758614</v>
+        <v>0.8240856434303292</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4327,22 +5068,22 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>0.9762876579203108</v>
+        <v>0.88923747276688447</v>
       </c>
       <c r="D11">
-        <v>0.97619047619047616</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>727</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>726</v>
       </c>
       <c r="G11">
-        <v>0.98</v>
+        <v>0.88736842105263158</v>
       </c>
       <c r="H11">
-        <v>0.9521904571390466</v>
+        <v>0.76988964013890715</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -4351,22 +5092,22 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.96825396825396826</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.96825396825396826</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.96578947368421053</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0.93368421052631578</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -4375,22 +5116,22 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.9762876579203108</v>
+        <v>0.98417678182384061</v>
       </c>
       <c r="D13">
-        <v>0.97619047619047616</v>
+        <v>0.98412698412698407</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>725</v>
       </c>
       <c r="F13" t="s">
-        <v>213</v>
+        <v>724</v>
       </c>
       <c r="G13">
-        <v>0.98117647058823532</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0.9521904571390466</v>
+        <v>0.96759227870718623</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4399,22 +5140,22 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.22546897546897551</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>723</v>
       </c>
       <c r="F14" t="s">
-        <v>215</v>
+        <v>722</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4423,22 +5164,22 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>0.9762876579203108</v>
+        <v>0.77699372759856633</v>
       </c>
       <c r="D15">
-        <v>0.97619047619047616</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="E15" t="s">
-        <v>214</v>
+        <v>721</v>
       </c>
       <c r="F15" t="s">
-        <v>213</v>
+        <v>720</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.9521904571390466</v>
+        <v>0.63628476297577774</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4447,22 +5188,22 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.95271164021164012</v>
+        <v>0.96843546843546846</v>
       </c>
       <c r="D16">
-        <v>0.95238095238095233</v>
+        <v>0.96825396825396826</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>719</v>
       </c>
       <c r="F16" t="s">
-        <v>211</v>
+        <v>718</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.90728049396911536</v>
+        <v>0.93658581158169396</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4471,22 +5212,22 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>0.83244206773618534</v>
+        <v>0.95253034547152182</v>
       </c>
       <c r="D17">
-        <v>0.83333333333333337</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="E17" t="s">
-        <v>210</v>
+        <v>717</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>716</v>
       </c>
       <c r="G17">
-        <v>0.89176470588235279</v>
+        <v>0.97105263157894739</v>
       </c>
       <c r="H17">
-        <v>0.65164254699165691</v>
+        <v>0.90169139918442653</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4497,22 +5238,22 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>0.93240740740740746</v>
+        <v>0.95586527293844359</v>
       </c>
       <c r="D18">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.7867957924694432</v>
+        <v>0.84515425472851657</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -4521,22 +5262,22 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>0.8482142857142857</v>
+        <v>0.95586527293844359</v>
       </c>
       <c r="D19">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19">
         <v>0.875</v>
       </c>
-      <c r="E19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19">
-        <v>0.66666666666666674</v>
-      </c>
       <c r="H19">
-        <v>0.53748384988657005</v>
+        <v>0.84515425472851657</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4545,22 +5286,22 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <v>0.88541666666666663</v>
+        <v>0.96011396011396011</v>
       </c>
       <c r="D20">
-        <v>0.875</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>715</v>
       </c>
       <c r="F20" t="s">
-        <v>205</v>
+        <v>714</v>
       </c>
       <c r="G20">
-        <v>0.92307692307692313</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="H20">
-        <v>0.71252530319442531</v>
+        <v>0.87177978870813466</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4569,22 +5310,22 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0.93240740740740746</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>709</v>
       </c>
       <c r="F21" t="s">
-        <v>201</v>
+        <v>708</v>
       </c>
       <c r="G21">
-        <v>0.97435897435897445</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.7867957924694432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -4593,22 +5334,22 @@
         <v>11</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.75757575757575746</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>713</v>
       </c>
       <c r="F22" t="s">
-        <v>203</v>
+        <v>712</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4617,22 +5358,22 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>0.93240740740740746</v>
+        <v>0.84186046511627921</v>
       </c>
       <c r="D23">
-        <v>0.9375</v>
+        <v>0.875</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>711</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>710</v>
       </c>
       <c r="G23">
-        <v>0.94871794871794879</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0.7867957924694432</v>
+        <v>0.46625240412015689</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -4641,22 +5382,22 @@
         <v>13</v>
       </c>
       <c r="C24">
-        <v>0.93240740740740746</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>709</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>708</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.7867957924694432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -4665,22 +5406,22 @@
         <v>14</v>
       </c>
       <c r="C25">
-        <v>0.54166666666666674</v>
+        <v>0.95586527293844359</v>
       </c>
       <c r="D25">
-        <v>0.5</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>83</v>
       </c>
       <c r="G25">
-        <v>0.41025641025641019</v>
+        <v>0.875</v>
       </c>
       <c r="H25">
-        <v>-0.32387513781564792</v>
+        <v>0.84515425472851657</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -4691,22 +5432,22 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.96628873771730917</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>703</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>702</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -4715,22 +5456,22 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>0.90370370370370368</v>
+        <v>0.88244766505636085</v>
       </c>
       <c r="D27">
-        <v>0.88888888888888884</v>
+        <v>0.85185185185185186</v>
       </c>
       <c r="E27" t="s">
-        <v>198</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>197</v>
+        <v>90</v>
       </c>
       <c r="G27">
-        <v>0.9375</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="H27">
-        <v>0.66143782776614757</v>
+        <v>0.52915026221291817</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -4739,22 +5480,22 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>0.93602693602693599</v>
+        <v>0.95715323166303545</v>
       </c>
       <c r="D28">
-        <v>0.94444444444444442</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E28" t="s">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="G28">
         <v>0.75</v>
       </c>
       <c r="H28">
-        <v>0.68599434057003528</v>
+        <v>0.69337524528153638</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4763,22 +5504,22 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>0.84731182795698923</v>
+        <v>0.93672839506172845</v>
       </c>
       <c r="D29">
-        <v>0.83333333333333337</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="E29" t="s">
-        <v>196</v>
+        <v>707</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>706</v>
       </c>
       <c r="G29">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.31622776601683789</v>
+        <v>0.67823299831252681</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4787,22 +5528,22 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>0.93602693602693599</v>
+        <v>1.021711366538953E-2</v>
       </c>
       <c r="D30">
-        <v>0.94444444444444442</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>705</v>
       </c>
       <c r="F30" t="s">
-        <v>193</v>
+        <v>704</v>
       </c>
       <c r="G30">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H30">
-        <v>0.68599434057003528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4811,22 +5552,22 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.95715323166303545</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0.69337524528153638</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4835,22 +5576,22 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.96628873771730917</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>703</v>
       </c>
       <c r="F32" t="s">
-        <v>191</v>
+        <v>702</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -4859,22 +5600,22 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>0.72619047619047616</v>
+        <v>0.96628873771730917</v>
       </c>
       <c r="D33">
-        <v>0.66666666666666663</v>
+        <v>0.96296296296296291</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>703</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>702</v>
       </c>
       <c r="G33">
-        <v>0.484375</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0.125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -4885,22 +5626,22 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>0.95669138629555184</v>
+        <v>0.95251607467730748</v>
       </c>
       <c r="D34">
-        <v>0.95674300254452926</v>
+        <v>0.9525423728813559</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>701</v>
       </c>
       <c r="F34" t="s">
-        <v>187</v>
+        <v>700</v>
       </c>
       <c r="G34">
-        <v>0.99378306878306877</v>
+        <v>0.99248607332556027</v>
       </c>
       <c r="H34">
-        <v>0.91153799782591005</v>
+        <v>0.90263570144627781</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -4909,22 +5650,22 @@
         <v>8</v>
       </c>
       <c r="C35">
-        <v>0.95412432931105662</v>
+        <v>0.94246015826850249</v>
       </c>
       <c r="D35">
-        <v>0.95419847328244278</v>
+        <v>0.94237288135593222</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>699</v>
       </c>
       <c r="F35" t="s">
-        <v>185</v>
+        <v>698</v>
       </c>
       <c r="G35">
-        <v>0.95170634920634922</v>
+        <v>0.94256203700432228</v>
       </c>
       <c r="H35">
-        <v>0.90634266727158308</v>
+        <v>0.8824467792443067</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -4933,22 +5674,22 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0.95155443021036534</v>
+        <v>0.94413924534310312</v>
       </c>
       <c r="D36">
-        <v>0.95165394402035619</v>
+        <v>0.94406779661016949</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>697</v>
       </c>
       <c r="F36" t="s">
-        <v>183</v>
+        <v>696</v>
       </c>
       <c r="G36">
-        <v>0.94847883597883609</v>
+        <v>0.94496460916981706</v>
       </c>
       <c r="H36">
-        <v>0.90116317072439234</v>
+        <v>0.88579051323454372</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -4957,22 +5698,22 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>0.95167183659491938</v>
+        <v>0.9541988235691069</v>
       </c>
       <c r="D37">
-        <v>0.95165394402035619</v>
+        <v>0.95423728813559328</v>
       </c>
       <c r="E37" t="s">
-        <v>182</v>
+        <v>691</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>690</v>
       </c>
       <c r="G37">
-        <v>0.98444444444444446</v>
+        <v>0.98901176553722214</v>
       </c>
       <c r="H37">
-        <v>0.90131673205221108</v>
+        <v>0.90609036033544021</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -4981,22 +5722,22 @@
         <v>11</v>
       </c>
       <c r="C38">
-        <v>0.96434874626886202</v>
+        <v>0.28995486366986001</v>
       </c>
       <c r="D38">
-        <v>0.96437659033078882</v>
+        <v>0.44067796610169491</v>
       </c>
       <c r="E38" t="s">
-        <v>180</v>
+        <v>695</v>
       </c>
       <c r="F38" t="s">
-        <v>179</v>
+        <v>694</v>
       </c>
       <c r="G38">
-        <v>0.96285714285714286</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="H38">
-        <v>0.92716257539389324</v>
+        <v>0.117782168192991</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -5005,22 +5746,22 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>0.95672639662168835</v>
+        <v>0.9404788145260774</v>
       </c>
       <c r="D39">
-        <v>0.95674300254452926</v>
+        <v>0.94067796610169496</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
+        <v>693</v>
       </c>
       <c r="F39" t="s">
-        <v>177</v>
+        <v>692</v>
       </c>
       <c r="G39">
-        <v>0.98817460317460315</v>
+        <v>0.98632653782284574</v>
       </c>
       <c r="H39">
-        <v>0.91157263902014896</v>
+        <v>0.87831960182443547</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -5029,22 +5770,22 @@
         <v>13</v>
       </c>
       <c r="C40">
-        <v>0.92315626537876116</v>
+        <v>0.9541988235691069</v>
       </c>
       <c r="D40">
-        <v>0.92366412213740456</v>
+        <v>0.95423728813559328</v>
       </c>
       <c r="E40" t="s">
-        <v>176</v>
+        <v>691</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>690</v>
       </c>
       <c r="G40">
-        <v>0.96722222222222221</v>
+        <v>0.9871980590985644</v>
       </c>
       <c r="H40">
-        <v>0.84467192191070228</v>
+        <v>0.90609036033544021</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -5053,48 +5794,48 @@
         <v>14</v>
       </c>
       <c r="C41">
-        <v>0.77829395135415047</v>
+        <v>0.7492825512099085</v>
       </c>
       <c r="D41">
-        <v>0.78117048346055984</v>
+        <v>0.75084745762711869</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>689</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>688</v>
       </c>
       <c r="G41">
-        <v>0.76933862433862421</v>
+        <v>0.73967423947991384</v>
       </c>
       <c r="H41">
-        <v>0.54914861369339596</v>
+        <v>0.48504512159308688</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>128</v>
+        <v>531</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42">
-        <v>0.96119910625907579</v>
+        <v>0.93781051933932524</v>
       </c>
       <c r="D42">
-        <v>0.96127562642369024</v>
+        <v>0.93768996960486317</v>
       </c>
       <c r="E42" t="s">
-        <v>172</v>
+        <v>687</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>686</v>
       </c>
       <c r="G42">
-        <v>0.99267929346669503</v>
+        <v>0.99166604449753626</v>
       </c>
       <c r="H42">
-        <v>0.9205498678771401</v>
+        <v>0.87595073196513618</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -5103,22 +5844,22 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>0.93149850689979918</v>
+        <v>0.93165953631510501</v>
       </c>
       <c r="D43">
-        <v>0.93166287015945326</v>
+        <v>0.93161094224924013</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>685</v>
       </c>
       <c r="F43" t="s">
-        <v>169</v>
+        <v>684</v>
       </c>
       <c r="G43">
-        <v>0.92772930410725696</v>
+        <v>0.93168582947588474</v>
       </c>
       <c r="H43">
-        <v>0.85958441719459877</v>
+        <v>0.86214551511848336</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -5127,22 +5868,22 @@
         <v>9</v>
       </c>
       <c r="C44">
-        <v>0.94540570421583425</v>
+        <v>0.92554320480550256</v>
       </c>
       <c r="D44">
-        <v>0.9453302961275627</v>
+        <v>0.92553191489361697</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>683</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>682</v>
       </c>
       <c r="G44">
-        <v>0.95169184932964457</v>
+        <v>0.92718288039420627</v>
       </c>
       <c r="H44">
-        <v>0.88837349982522962</v>
+        <v>0.84960049434568896</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -5151,22 +5892,22 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <v>0.95453314932969135</v>
+        <v>0.94988365996441038</v>
       </c>
       <c r="D45">
-        <v>0.95444191343963558</v>
+        <v>0.94984802431610937</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>681</v>
       </c>
       <c r="F45" t="s">
-        <v>165</v>
+        <v>680</v>
       </c>
       <c r="G45">
-        <v>0.97761225792721851</v>
+        <v>0.98766238614304913</v>
       </c>
       <c r="H45">
-        <v>0.90733893239870811</v>
+        <v>0.89893804466803129</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -5175,22 +5916,22 @@
         <v>11</v>
       </c>
       <c r="C46">
-        <v>0.96813204196904878</v>
+        <v>0.3304863245887607</v>
       </c>
       <c r="D46">
-        <v>0.96810933940774491</v>
+        <v>0.47416413373860178</v>
       </c>
       <c r="E46" t="s">
-        <v>164</v>
+        <v>679</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>678</v>
       </c>
       <c r="G46">
-        <v>0.96803575228772087</v>
+        <v>0.5220994475138121</v>
       </c>
       <c r="H46">
-        <v>0.93473966858794566</v>
+        <v>0.14275260677727891</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -5199,22 +5940,22 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>0.97041837120498686</v>
+        <v>0.93922786991685447</v>
       </c>
       <c r="D47">
-        <v>0.97038724373576313</v>
+        <v>0.93920972644376899</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>677</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>676</v>
       </c>
       <c r="G47">
-        <v>0.9836560970419238</v>
+        <v>0.98601985963864425</v>
       </c>
       <c r="H47">
-        <v>0.93949962353823169</v>
+        <v>0.8772759360300596</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -5223,22 +5964,22 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>0.92930363336168031</v>
+        <v>0.95135234019278203</v>
       </c>
       <c r="D48">
-        <v>0.92938496583143504</v>
+        <v>0.95136778115501519</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>675</v>
       </c>
       <c r="F48" t="s">
-        <v>159</v>
+        <v>674</v>
       </c>
       <c r="G48">
-        <v>0.97767610129814853</v>
+        <v>0.9882410034343736</v>
       </c>
       <c r="H48">
-        <v>0.85495726194747523</v>
+        <v>0.9017035175026723</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -5247,22 +5988,22 @@
         <v>14</v>
       </c>
       <c r="C49">
-        <v>0.75835945252618242</v>
+        <v>0.79814719006661061</v>
       </c>
       <c r="D49">
-        <v>0.75854214123006836</v>
+        <v>0.79939209726443772</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>673</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>672</v>
       </c>
       <c r="G49">
-        <v>0.75086188550755484</v>
+        <v>0.80011105718978648</v>
       </c>
       <c r="H49">
-        <v>0.50414601937085823</v>
+        <v>0.59341675232762225</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -5273,22 +6014,22 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>0.9439696191487803</v>
+        <v>0.91010884456478358</v>
       </c>
       <c r="D50">
-        <v>0.9438202247191011</v>
+        <v>0.90977443609022557</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="F50" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="G50">
-        <v>0.98368983957219247</v>
+        <v>0.97999999999999987</v>
       </c>
       <c r="H50">
-        <v>0.88192737004312327</v>
+        <v>0.8096371797550308</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -5297,22 +6038,22 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>0.92111564860181327</v>
+        <v>0.86647562963352442</v>
       </c>
       <c r="D51">
-        <v>0.9213483146067416</v>
+        <v>0.86466165413533835</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>671</v>
       </c>
       <c r="F51" t="s">
-        <v>155</v>
+        <v>670</v>
       </c>
       <c r="G51">
-        <v>0.91390374331550794</v>
+        <v>0.87566265060240966</v>
       </c>
       <c r="H51">
-        <v>0.83272033383706989</v>
+        <v>0.73133272496311108</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -5321,22 +6062,22 @@
         <v>9</v>
       </c>
       <c r="C52">
-        <v>0.87673316212731678</v>
+        <v>0.89925251139656426</v>
       </c>
       <c r="D52">
-        <v>0.8764044943820225</v>
+        <v>0.90225563909774431</v>
       </c>
       <c r="E52" t="s">
-        <v>154</v>
+        <v>669</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>668</v>
       </c>
       <c r="G52">
-        <v>0.87192513368983959</v>
+        <v>0.87397590361445787</v>
       </c>
       <c r="H52">
-        <v>0.73990408427622711</v>
+        <v>0.7957954173831544</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -5345,22 +6086,22 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <v>0.87673316212731678</v>
+        <v>0.92449235333231028</v>
       </c>
       <c r="D53">
-        <v>0.8764044943820225</v>
+        <v>0.92481203007518797</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>667</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>666</v>
       </c>
       <c r="G53">
-        <v>0.94117647058823528</v>
+        <v>0.976867469879518</v>
       </c>
       <c r="H53">
-        <v>0.73990408427622711</v>
+        <v>0.83891248378201555</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -5369,22 +6110,22 @@
         <v>11</v>
       </c>
       <c r="C54">
-        <v>0.9439696191487803</v>
+        <v>0.2214189319452477</v>
       </c>
       <c r="D54">
-        <v>0.9438202247191011</v>
+        <v>0.38345864661654128</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>665</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>664</v>
       </c>
       <c r="G54">
-        <v>0.9433155080213903</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="H54">
-        <v>0.88192737004312327</v>
+        <v>6.7555232091870518E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -5393,22 +6134,22 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>0.93292313179953634</v>
+        <v>0.88375289776526633</v>
       </c>
       <c r="D55">
-        <v>0.93258426966292129</v>
+        <v>0.88721804511278191</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>663</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>662</v>
       </c>
       <c r="G55">
-        <v>0.96524064171123003</v>
+        <v>0.97783132530120487</v>
       </c>
       <c r="H55">
-        <v>0.85975762555459079</v>
+        <v>0.7616972245635798</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -5417,22 +6158,22 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>0.90808763794978187</v>
+        <v>0.93246076487347984</v>
       </c>
       <c r="D56">
-        <v>0.9101123595505618</v>
+        <v>0.93233082706766912</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>661</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>660</v>
       </c>
       <c r="G56">
-        <v>0.95775401069518717</v>
+        <v>0.98216867469879521</v>
       </c>
       <c r="H56">
-        <v>0.8119002516073216</v>
+        <v>0.85646334970271332</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -5441,22 +6182,22 @@
         <v>14</v>
       </c>
       <c r="C57">
-        <v>0.74499372920161377</v>
+        <v>0.83616647751454098</v>
       </c>
       <c r="D57">
-        <v>0.7415730337078652</v>
+        <v>0.83458646616541354</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>659</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>658</v>
       </c>
       <c r="G57">
-        <v>0.80855614973262036</v>
+        <v>0.83566265060240963</v>
       </c>
       <c r="H57">
-        <v>0.51163369738975362</v>
+        <v>0.65859387535988767</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -5467,22 +6208,22 @@
         <v>7</v>
       </c>
       <c r="C58">
-        <v>0.95728963075716578</v>
+        <v>0.94044741852685609</v>
       </c>
       <c r="D58">
-        <v>0.95735607675906187</v>
+        <v>0.94034090909090906</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>657</v>
       </c>
       <c r="F58" t="s">
-        <v>135</v>
+        <v>656</v>
       </c>
       <c r="G58">
-        <v>0.99538648699232635</v>
+        <v>0.98855151816824294</v>
       </c>
       <c r="H58">
-        <v>0.91210265728468176</v>
+        <v>0.87806002459707966</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -5491,22 +6232,22 @@
         <v>8</v>
       </c>
       <c r="C59">
-        <v>0.94456289978678043</v>
+        <v>0.91625202139130468</v>
       </c>
       <c r="D59">
-        <v>0.94456289978678043</v>
+        <v>0.91619318181818177</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>655</v>
       </c>
       <c r="F59" t="s">
-        <v>143</v>
+        <v>654</v>
       </c>
       <c r="G59">
-        <v>0.94294403892944045</v>
+        <v>0.91457607433217181</v>
       </c>
       <c r="H59">
-        <v>0.8858880778588808</v>
+        <v>0.82798867144229982</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -5515,22 +6256,22 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>0.92107918932077038</v>
+        <v>0.90652591032373475</v>
       </c>
       <c r="D60">
-        <v>0.9211087420042644</v>
+        <v>0.90625</v>
       </c>
       <c r="E60" t="s">
-        <v>142</v>
+        <v>653</v>
       </c>
       <c r="F60" t="s">
-        <v>141</v>
+        <v>652</v>
       </c>
       <c r="G60">
-        <v>0.92393786262399391</v>
+        <v>0.92447320391571264</v>
       </c>
       <c r="H60">
-        <v>0.83749789378416772</v>
+        <v>0.8092244474571777</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -5539,22 +6280,22 @@
         <v>10</v>
       </c>
       <c r="C61">
-        <v>0.94452081539017985</v>
+        <v>0.94599628166772731</v>
       </c>
       <c r="D61">
-        <v>0.94456289978678043</v>
+        <v>0.94602272727272729</v>
       </c>
       <c r="E61" t="s">
-        <v>140</v>
+        <v>651</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>650</v>
       </c>
       <c r="G61">
-        <v>0.97915029009919519</v>
+        <v>0.985722581715613</v>
       </c>
       <c r="H61">
-        <v>0.88575333119956823</v>
+        <v>0.8889409858055366</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -5563,22 +6304,22 @@
         <v>11</v>
       </c>
       <c r="C62">
-        <v>0.9680050767516637</v>
+        <v>0.2491297022010513</v>
       </c>
       <c r="D62">
-        <v>0.96801705756929635</v>
+        <v>0.41903409090909088</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>649</v>
       </c>
       <c r="F62" t="s">
-        <v>137</v>
+        <v>648</v>
       </c>
       <c r="G62">
-        <v>0.96671345685944221</v>
+        <v>0.50121951219512195</v>
       </c>
       <c r="H62">
-        <v>0.93412650303479439</v>
+        <v>3.1937732152392893E-2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -5587,22 +6328,22 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>0.95728963075716578</v>
+        <v>0.94306445262217375</v>
       </c>
       <c r="D63">
-        <v>0.95735607675906187</v>
+        <v>0.94318181818181823</v>
       </c>
       <c r="E63" t="s">
-        <v>136</v>
+        <v>647</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>646</v>
       </c>
       <c r="G63">
-        <v>0.9888452180422983</v>
+        <v>0.97796582047453129</v>
       </c>
       <c r="H63">
-        <v>0.91210265728468176</v>
+        <v>0.88298377919218141</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -5611,22 +6352,22 @@
         <v>13</v>
       </c>
       <c r="C64">
-        <v>0.92901470485249704</v>
+        <v>0.9473770726129217</v>
       </c>
       <c r="D64">
-        <v>0.92963752665245203</v>
+        <v>0.94744318181818177</v>
       </c>
       <c r="E64" t="s">
-        <v>134</v>
+        <v>645</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>644</v>
       </c>
       <c r="G64">
-        <v>0.96573086281115483</v>
+        <v>0.98426248548199768</v>
       </c>
       <c r="H64">
-        <v>0.8561699891328014</v>
+        <v>0.89178783113628868</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,22 +6376,22 @@
         <v>14</v>
       </c>
       <c r="C65">
-        <v>0.81285694915658302</v>
+        <v>0.78228101479237822</v>
       </c>
       <c r="D65">
-        <v>0.81449893390191896</v>
+        <v>0.78267045454545459</v>
       </c>
       <c r="E65" t="s">
-        <v>132</v>
+        <v>643</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>642</v>
       </c>
       <c r="G65">
-        <v>0.79411379374883029</v>
+        <v>0.7781566285050604</v>
       </c>
       <c r="H65">
-        <v>0.61492745842835195</v>
+        <v>0.55181668170214682</v>
       </c>
     </row>
   </sheetData>
@@ -5669,6 +6410,1609 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666F141A-4ACA-0C49-8B35-C58E9F1E973C}">
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.96318680491895414</v>
+      </c>
+      <c r="D2">
+        <v>0.96325459317585305</v>
+      </c>
+      <c r="E2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G2">
+        <v>0.99519230769230771</v>
+      </c>
+      <c r="H2">
+        <v>0.92453084733738611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.95015237025055888</v>
+      </c>
+      <c r="D3">
+        <v>0.95013123359580054</v>
+      </c>
+      <c r="E3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3">
+        <v>0.94925056561085974</v>
+      </c>
+      <c r="H3">
+        <v>0.89773979698144246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0.96847582986343961</v>
+      </c>
+      <c r="D4">
+        <v>0.96850393700787396</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4">
+        <v>0.96674208144796381</v>
+      </c>
+      <c r="H4">
+        <v>0.93529344094283917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.9603587825137494</v>
+      </c>
+      <c r="D5">
+        <v>0.96062992125984248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5">
+        <v>0.97980769230769227</v>
+      </c>
+      <c r="H5">
+        <v>0.92058411582325139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.96318680491895414</v>
+      </c>
+      <c r="D6">
+        <v>0.96325459317585305</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G6">
+        <v>0.96056278280542995</v>
+      </c>
+      <c r="H6">
+        <v>0.92453084733738611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.95512811750456872</v>
+      </c>
+      <c r="D7">
+        <v>0.95538057742782156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7">
+        <v>0.98215497737556567</v>
+      </c>
+      <c r="H7">
+        <v>0.90916482380416741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.94166615654471353</v>
+      </c>
+      <c r="D8">
+        <v>0.94225721784776906</v>
+      </c>
+      <c r="E8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8">
+        <v>0.9716628959276018</v>
+      </c>
+      <c r="H8">
+        <v>0.88390570204379826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.80323304046273247</v>
+      </c>
+      <c r="D9">
+        <v>0.80314960629921262</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G9">
+        <v>0.79625282805429864</v>
+      </c>
+      <c r="H9">
+        <v>0.5962986036227812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.92918754620882282</v>
+      </c>
+      <c r="D10">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0.86486993241758614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.9762876579203108</v>
+      </c>
+      <c r="D11">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="E11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11">
+        <v>0.98</v>
+      </c>
+      <c r="H11">
+        <v>0.9521904571390466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.9762876579203108</v>
+      </c>
+      <c r="D13">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13">
+        <v>0.98117647058823532</v>
+      </c>
+      <c r="H13">
+        <v>0.9521904571390466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.9762876579203108</v>
+      </c>
+      <c r="D15">
+        <v>0.97619047619047616</v>
+      </c>
+      <c r="E15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0.9521904571390466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.95271164021164012</v>
+      </c>
+      <c r="D16">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0.90728049396911536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.83244206773618534</v>
+      </c>
+      <c r="D17">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17">
+        <v>0.89176470588235279</v>
+      </c>
+      <c r="H17">
+        <v>0.65164254699165691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.93240740740740746</v>
+      </c>
+      <c r="D18">
+        <v>0.9375</v>
+      </c>
+      <c r="E18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0.7867957924694432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="D19">
+        <v>0.875</v>
+      </c>
+      <c r="E19" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="H19">
+        <v>0.53748384988657005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.88541666666666663</v>
+      </c>
+      <c r="D20">
+        <v>0.875</v>
+      </c>
+      <c r="E20" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="H20">
+        <v>0.71252530319442531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.93240740740740746</v>
+      </c>
+      <c r="D21">
+        <v>0.9375</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21">
+        <v>0.97435897435897445</v>
+      </c>
+      <c r="H21">
+        <v>0.7867957924694432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.93240740740740746</v>
+      </c>
+      <c r="D23">
+        <v>0.9375</v>
+      </c>
+      <c r="E23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23">
+        <v>0.94871794871794879</v>
+      </c>
+      <c r="H23">
+        <v>0.7867957924694432</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.93240740740740746</v>
+      </c>
+      <c r="D24">
+        <v>0.9375</v>
+      </c>
+      <c r="E24" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0.7867957924694432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.54166666666666674</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>200</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25">
+        <v>0.41025641025641019</v>
+      </c>
+      <c r="H25">
+        <v>-0.32387513781564792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.90370370370370368</v>
+      </c>
+      <c r="D27">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" t="s">
+        <v>197</v>
+      </c>
+      <c r="G27">
+        <v>0.9375</v>
+      </c>
+      <c r="H27">
+        <v>0.66143782776614757</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0.93602693602693599</v>
+      </c>
+      <c r="D28">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E28" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28">
+        <v>0.75</v>
+      </c>
+      <c r="H28">
+        <v>0.68599434057003528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.84731182795698923</v>
+      </c>
+      <c r="D29">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29">
+        <v>0.875</v>
+      </c>
+      <c r="H29">
+        <v>0.31622776601683789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.93602693602693599</v>
+      </c>
+      <c r="D30">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30">
+        <v>0.75</v>
+      </c>
+      <c r="H30">
+        <v>0.68599434057003528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0.72619047619047616</v>
+      </c>
+      <c r="D33">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33">
+        <v>0.484375</v>
+      </c>
+      <c r="H33">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.95669138629555184</v>
+      </c>
+      <c r="D34">
+        <v>0.95674300254452926</v>
+      </c>
+      <c r="E34" t="s">
+        <v>188</v>
+      </c>
+      <c r="F34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G34">
+        <v>0.99378306878306877</v>
+      </c>
+      <c r="H34">
+        <v>0.91153799782591005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0.95412432931105662</v>
+      </c>
+      <c r="D35">
+        <v>0.95419847328244278</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35">
+        <v>0.95170634920634922</v>
+      </c>
+      <c r="H35">
+        <v>0.90634266727158308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>0.95155443021036534</v>
+      </c>
+      <c r="D36">
+        <v>0.95165394402035619</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36">
+        <v>0.94847883597883609</v>
+      </c>
+      <c r="H36">
+        <v>0.90116317072439234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>0.95167183659491938</v>
+      </c>
+      <c r="D37">
+        <v>0.95165394402035619</v>
+      </c>
+      <c r="E37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37">
+        <v>0.98444444444444446</v>
+      </c>
+      <c r="H37">
+        <v>0.90131673205221108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0.96434874626886202</v>
+      </c>
+      <c r="D38">
+        <v>0.96437659033078882</v>
+      </c>
+      <c r="E38" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38">
+        <v>0.96285714285714286</v>
+      </c>
+      <c r="H38">
+        <v>0.92716257539389324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>0.95672639662168835</v>
+      </c>
+      <c r="D39">
+        <v>0.95674300254452926</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39">
+        <v>0.98817460317460315</v>
+      </c>
+      <c r="H39">
+        <v>0.91157263902014896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0.92315626537876116</v>
+      </c>
+      <c r="D40">
+        <v>0.92366412213740456</v>
+      </c>
+      <c r="E40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40">
+        <v>0.96722222222222221</v>
+      </c>
+      <c r="H40">
+        <v>0.84467192191070228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>0.77829395135415047</v>
+      </c>
+      <c r="D41">
+        <v>0.78117048346055984</v>
+      </c>
+      <c r="E41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41">
+        <v>0.76933862433862421</v>
+      </c>
+      <c r="H41">
+        <v>0.54914861369339596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.96119910625907579</v>
+      </c>
+      <c r="D42">
+        <v>0.96127562642369024</v>
+      </c>
+      <c r="E42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42">
+        <v>0.99267929346669503</v>
+      </c>
+      <c r="H42">
+        <v>0.9205498678771401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0.93149850689979918</v>
+      </c>
+      <c r="D43">
+        <v>0.93166287015945326</v>
+      </c>
+      <c r="E43" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" t="s">
+        <v>169</v>
+      </c>
+      <c r="G43">
+        <v>0.92772930410725696</v>
+      </c>
+      <c r="H43">
+        <v>0.85958441719459877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.94540570421583425</v>
+      </c>
+      <c r="D44">
+        <v>0.9453302961275627</v>
+      </c>
+      <c r="E44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44">
+        <v>0.95169184932964457</v>
+      </c>
+      <c r="H44">
+        <v>0.88837349982522962</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.95453314932969135</v>
+      </c>
+      <c r="D45">
+        <v>0.95444191343963558</v>
+      </c>
+      <c r="E45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45">
+        <v>0.97761225792721851</v>
+      </c>
+      <c r="H45">
+        <v>0.90733893239870811</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.96813204196904878</v>
+      </c>
+      <c r="D46">
+        <v>0.96810933940774491</v>
+      </c>
+      <c r="E46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46">
+        <v>0.96803575228772087</v>
+      </c>
+      <c r="H46">
+        <v>0.93473966858794566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0.97041837120498686</v>
+      </c>
+      <c r="D47">
+        <v>0.97038724373576313</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47">
+        <v>0.9836560970419238</v>
+      </c>
+      <c r="H47">
+        <v>0.93949962353823169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0.92930363336168031</v>
+      </c>
+      <c r="D48">
+        <v>0.92938496583143504</v>
+      </c>
+      <c r="E48" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" t="s">
+        <v>159</v>
+      </c>
+      <c r="G48">
+        <v>0.97767610129814853</v>
+      </c>
+      <c r="H48">
+        <v>0.85495726194747523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.75835945252618242</v>
+      </c>
+      <c r="D49">
+        <v>0.75854214123006836</v>
+      </c>
+      <c r="E49" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49">
+        <v>0.75086188550755484</v>
+      </c>
+      <c r="H49">
+        <v>0.50414601937085823</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.9439696191487803</v>
+      </c>
+      <c r="D50">
+        <v>0.9438202247191011</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50">
+        <v>0.98368983957219247</v>
+      </c>
+      <c r="H50">
+        <v>0.88192737004312327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>0.92111564860181327</v>
+      </c>
+      <c r="D51">
+        <v>0.9213483146067416</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51">
+        <v>0.91390374331550794</v>
+      </c>
+      <c r="H51">
+        <v>0.83272033383706989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>0.87673316212731678</v>
+      </c>
+      <c r="D52">
+        <v>0.8764044943820225</v>
+      </c>
+      <c r="E52" t="s">
+        <v>154</v>
+      </c>
+      <c r="F52" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52">
+        <v>0.87192513368983959</v>
+      </c>
+      <c r="H52">
+        <v>0.73990408427622711</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>0.87673316212731678</v>
+      </c>
+      <c r="D53">
+        <v>0.8764044943820225</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H53">
+        <v>0.73990408427622711</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>0.9439696191487803</v>
+      </c>
+      <c r="D54">
+        <v>0.9438202247191011</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54">
+        <v>0.9433155080213903</v>
+      </c>
+      <c r="H54">
+        <v>0.88192737004312327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>0.93292313179953634</v>
+      </c>
+      <c r="D55">
+        <v>0.93258426966292129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55">
+        <v>0.96524064171123003</v>
+      </c>
+      <c r="H55">
+        <v>0.85975762555459079</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>0.90808763794978187</v>
+      </c>
+      <c r="D56">
+        <v>0.9101123595505618</v>
+      </c>
+      <c r="E56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56">
+        <v>0.95775401069518717</v>
+      </c>
+      <c r="H56">
+        <v>0.8119002516073216</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>0.74499372920161377</v>
+      </c>
+      <c r="D57">
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
+      </c>
+      <c r="F57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57">
+        <v>0.80855614973262036</v>
+      </c>
+      <c r="H57">
+        <v>0.51163369738975362</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>0.95728963075716578</v>
+      </c>
+      <c r="D58">
+        <v>0.95735607675906187</v>
+      </c>
+      <c r="E58" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G58">
+        <v>0.99538648699232635</v>
+      </c>
+      <c r="H58">
+        <v>0.91210265728468176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>0.94456289978678043</v>
+      </c>
+      <c r="D59">
+        <v>0.94456289978678043</v>
+      </c>
+      <c r="E59" t="s">
+        <v>144</v>
+      </c>
+      <c r="F59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59">
+        <v>0.94294403892944045</v>
+      </c>
+      <c r="H59">
+        <v>0.8858880778588808</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>0.92107918932077038</v>
+      </c>
+      <c r="D60">
+        <v>0.9211087420042644</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F60" t="s">
+        <v>141</v>
+      </c>
+      <c r="G60">
+        <v>0.92393786262399391</v>
+      </c>
+      <c r="H60">
+        <v>0.83749789378416772</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>0.94452081539017985</v>
+      </c>
+      <c r="D61">
+        <v>0.94456289978678043</v>
+      </c>
+      <c r="E61" t="s">
+        <v>140</v>
+      </c>
+      <c r="F61" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61">
+        <v>0.97915029009919519</v>
+      </c>
+      <c r="H61">
+        <v>0.88575333119956823</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>0.9680050767516637</v>
+      </c>
+      <c r="D62">
+        <v>0.96801705756929635</v>
+      </c>
+      <c r="E62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" t="s">
+        <v>137</v>
+      </c>
+      <c r="G62">
+        <v>0.96671345685944221</v>
+      </c>
+      <c r="H62">
+        <v>0.93412650303479439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>0.95728963075716578</v>
+      </c>
+      <c r="D63">
+        <v>0.95735607675906187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63">
+        <v>0.9888452180422983</v>
+      </c>
+      <c r="H63">
+        <v>0.91210265728468176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>0.92901470485249704</v>
+      </c>
+      <c r="D64">
+        <v>0.92963752665245203</v>
+      </c>
+      <c r="E64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64">
+        <v>0.96573086281115483</v>
+      </c>
+      <c r="H64">
+        <v>0.8561699891328014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0.81285694915658302</v>
+      </c>
+      <c r="D65">
+        <v>0.81449893390191896</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65">
+        <v>0.79411379374883029</v>
+      </c>
+      <c r="H65">
+        <v>0.61492745842835195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7556E007-CDE9-4B46-A413-D0C9E5FAF7B9}">
   <dimension ref="A1:G65"/>
   <sheetViews>
@@ -7081,12 +9425,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2E6928-345A-1F4A-9671-92EBCB3E7A2C}">
   <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11003,6 +13347,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A74:A81"/>
     <mergeCell ref="A82:A89"/>
     <mergeCell ref="A146:A153"/>
@@ -11014,21 +13367,3965 @@
     <mergeCell ref="A130:A137"/>
     <mergeCell ref="A138:A145"/>
     <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A42:A49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1039358B-1C0B-894C-95CD-AA0775484F56}">
+  <dimension ref="A1:H161"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.31796310846709319</v>
+      </c>
+      <c r="D2">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G2">
+        <v>0.46382629322142138</v>
+      </c>
+      <c r="H2">
+        <v>1.939216666713648E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.2749800923713967</v>
+      </c>
+      <c r="D3">
+        <v>0.4238095238095238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G3">
+        <v>0.45876288659793812</v>
+      </c>
+      <c r="H3">
+        <v>-0.21479425602219579</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0.57694363459669573</v>
+      </c>
+      <c r="D4">
+        <v>0.580952380952381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>637</v>
+      </c>
+      <c r="F4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G4">
+        <v>0.58945351701487092</v>
+      </c>
+      <c r="H4">
+        <v>0.1824364438411169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.53825315425315423</v>
+      </c>
+      <c r="D5">
+        <v>0.53809523809523807</v>
+      </c>
+      <c r="E5" t="s">
+        <v>635</v>
+      </c>
+      <c r="F5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G5">
+        <v>0.59711705136392657</v>
+      </c>
+      <c r="H5">
+        <v>7.1477429300237816E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.37650007371369598</v>
+      </c>
+      <c r="D6">
+        <v>0.53809523809523807</v>
+      </c>
+      <c r="E6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F6" t="s">
+        <v>632</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.5428245828245829</v>
+      </c>
+      <c r="D7">
+        <v>0.54761904761904767</v>
+      </c>
+      <c r="E7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G7">
+        <v>0.58261107563178538</v>
+      </c>
+      <c r="H7">
+        <v>0.1150477580156077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.55656573244538221</v>
+      </c>
+      <c r="D8">
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="E8" t="s">
+        <v>629</v>
+      </c>
+      <c r="F8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G8">
+        <v>0.61335644557978286</v>
+      </c>
+      <c r="H8">
+        <v>0.10720365721035929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.43847423436640381</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F9" t="s">
+        <v>626</v>
+      </c>
+      <c r="G9">
+        <v>0.4748198157102454</v>
+      </c>
+      <c r="H9">
+        <v>-6.6617466826027691E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>0.77954844503853471</v>
+      </c>
+      <c r="D10">
+        <v>0.80769230769230771</v>
+      </c>
+      <c r="E10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" t="s">
+        <v>624</v>
+      </c>
+      <c r="G10">
+        <v>0.76034482758620692</v>
+      </c>
+      <c r="H10">
+        <v>0.43122734316049038</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>0.63423831070889891</v>
+      </c>
+      <c r="D11">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="E11" t="s">
+        <v>621</v>
+      </c>
+      <c r="F11" t="s">
+        <v>620</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.62763388396797459</v>
+      </c>
+      <c r="D12">
+        <v>0.60256410256410253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>505</v>
+      </c>
+      <c r="F12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G12">
+        <v>0.63448275862068959</v>
+      </c>
+      <c r="H12">
+        <v>0.23488808780588141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.47098892668512921</v>
+      </c>
+      <c r="D13">
+        <v>0.47435897435897428</v>
+      </c>
+      <c r="E13" t="s">
+        <v>623</v>
+      </c>
+      <c r="F13" t="s">
+        <v>622</v>
+      </c>
+      <c r="G13">
+        <v>0.74741379310344824</v>
+      </c>
+      <c r="H13">
+        <v>0.26483485492757353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0.63423831070889891</v>
+      </c>
+      <c r="D14">
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="E14" t="s">
+        <v>621</v>
+      </c>
+      <c r="F14" t="s">
+        <v>620</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>0.78142235123367187</v>
+      </c>
+      <c r="D15">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="E15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F15" t="s">
+        <v>618</v>
+      </c>
+      <c r="G15">
+        <v>0.79051724137931034</v>
+      </c>
+      <c r="H15">
+        <v>0.50137741307804007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.39392863783107679</v>
+      </c>
+      <c r="D16">
+        <v>0.41025641025641019</v>
+      </c>
+      <c r="E16" t="s">
+        <v>617</v>
+      </c>
+      <c r="F16" t="s">
+        <v>616</v>
+      </c>
+      <c r="G16">
+        <v>0.68103448275862066</v>
+      </c>
+      <c r="H16">
+        <v>0.15288293703366651</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0.62770757507599606</v>
+      </c>
+      <c r="D17">
+        <v>0.60256410256410253</v>
+      </c>
+      <c r="E17" t="s">
+        <v>615</v>
+      </c>
+      <c r="F17" t="s">
+        <v>614</v>
+      </c>
+      <c r="G17">
+        <v>0.62672413793103443</v>
+      </c>
+      <c r="H17">
+        <v>0.20655170193831371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.74747474747474751</v>
+      </c>
+      <c r="D18">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="E18" t="s">
+        <v>613</v>
+      </c>
+      <c r="F18" t="s">
+        <v>612</v>
+      </c>
+      <c r="G18">
+        <v>0.62321428571428572</v>
+      </c>
+      <c r="H18">
+        <v>0.23652495839563309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.73893065998329155</v>
+      </c>
+      <c r="D19">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E19" t="s">
+        <v>611</v>
+      </c>
+      <c r="F19" t="s">
+        <v>610</v>
+      </c>
+      <c r="G19">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H19">
+        <v>0.2086959677824205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.49185185185185182</v>
+      </c>
+      <c r="D20">
+        <v>0.45555555555555549</v>
+      </c>
+      <c r="E20" t="s">
+        <v>609</v>
+      </c>
+      <c r="F20" t="s">
+        <v>608</v>
+      </c>
+      <c r="G20">
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="H20">
+        <v>4.2640143271122088E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="D21">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="E21" t="s">
+        <v>607</v>
+      </c>
+      <c r="F21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G21">
+        <v>0.44928571428571429</v>
+      </c>
+      <c r="H21">
+        <v>-0.16428571428571431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="D22">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E22" t="s">
+        <v>605</v>
+      </c>
+      <c r="F22" t="s">
+        <v>604</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.62740384615384615</v>
+      </c>
+      <c r="D23">
+        <v>0.6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>603</v>
+      </c>
+      <c r="F23" t="s">
+        <v>602</v>
+      </c>
+      <c r="G23">
+        <v>0.42642857142857138</v>
+      </c>
+      <c r="H23">
+        <v>4.9629166698546508E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.28338784692032731</v>
+      </c>
+      <c r="D24">
+        <v>0.25555555555555548</v>
+      </c>
+      <c r="E24" t="s">
+        <v>601</v>
+      </c>
+      <c r="F24" t="s">
+        <v>600</v>
+      </c>
+      <c r="G24">
+        <v>0.44285714285714278</v>
+      </c>
+      <c r="H24">
+        <v>-0.3499271061118826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.68185858585858583</v>
+      </c>
+      <c r="D25">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="E25" t="s">
+        <v>599</v>
+      </c>
+      <c r="F25" t="s">
+        <v>598</v>
+      </c>
+      <c r="G25">
+        <v>0.77428571428571424</v>
+      </c>
+      <c r="H25">
+        <v>0.2314750634718056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>0.65003563791874552</v>
+      </c>
+      <c r="D26">
+        <v>0.67213114754098358</v>
+      </c>
+      <c r="E26" t="s">
+        <v>597</v>
+      </c>
+      <c r="F26" t="s">
+        <v>596</v>
+      </c>
+      <c r="G26">
+        <v>0.41214470284237731</v>
+      </c>
+      <c r="H26">
+        <v>0.13192614230108909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>0.58291298865069352</v>
+      </c>
+      <c r="D27">
+        <v>0.70491803278688525</v>
+      </c>
+      <c r="E27" t="s">
+        <v>591</v>
+      </c>
+      <c r="F27" t="s">
+        <v>590</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>0.40094911725920329</v>
+      </c>
+      <c r="D28">
+        <v>0.39344262295081972</v>
+      </c>
+      <c r="E28" t="s">
+        <v>595</v>
+      </c>
+      <c r="F28" t="s">
+        <v>594</v>
+      </c>
+      <c r="G28">
+        <v>0.45671834625322999</v>
+      </c>
+      <c r="H28">
+        <v>-8.4100271178379996E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0.43008678881388618</v>
+      </c>
+      <c r="D29">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="E29" t="s">
+        <v>593</v>
+      </c>
+      <c r="F29" t="s">
+        <v>592</v>
+      </c>
+      <c r="G29">
+        <v>0.40439276485788112</v>
+      </c>
+      <c r="H29">
+        <v>-0.1186160505237823</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>0.58291298865069352</v>
+      </c>
+      <c r="D30">
+        <v>0.70491803278688525</v>
+      </c>
+      <c r="E30" t="s">
+        <v>591</v>
+      </c>
+      <c r="F30" t="s">
+        <v>590</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>0.58468612554978017</v>
+      </c>
+      <c r="D31">
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="E31" t="s">
+        <v>589</v>
+      </c>
+      <c r="F31" t="s">
+        <v>588</v>
+      </c>
+      <c r="G31">
+        <v>0.39664082687338509</v>
+      </c>
+      <c r="H31">
+        <v>3.8040618506945727E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>0.51400534821532373</v>
+      </c>
+      <c r="D32">
+        <v>0.49180327868852458</v>
+      </c>
+      <c r="E32" t="s">
+        <v>587</v>
+      </c>
+      <c r="F32" t="s">
+        <v>586</v>
+      </c>
+      <c r="G32">
+        <v>0.44573643410852709</v>
+      </c>
+      <c r="H32">
+        <v>-4.0117554251692431E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>0.41599985655177357</v>
+      </c>
+      <c r="D33">
+        <v>0.39344262295081972</v>
+      </c>
+      <c r="E33" t="s">
+        <v>585</v>
+      </c>
+      <c r="F33" t="s">
+        <v>584</v>
+      </c>
+      <c r="G33">
+        <v>0.40956072351421191</v>
+      </c>
+      <c r="H33">
+        <v>-0.16919875686864169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0.30386583573998072</v>
+      </c>
+      <c r="D34">
+        <v>0.45555555555555549</v>
+      </c>
+      <c r="E34" t="s">
+        <v>583</v>
+      </c>
+      <c r="F34" t="s">
+        <v>582</v>
+      </c>
+      <c r="G34">
+        <v>0.44026879044300637</v>
+      </c>
+      <c r="H34">
+        <v>-1.3453760267086031E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>0.37507768134576241</v>
+      </c>
+      <c r="D35">
+        <v>0.45555555555555549</v>
+      </c>
+      <c r="E35" t="s">
+        <v>581</v>
+      </c>
+      <c r="F35" t="s">
+        <v>580</v>
+      </c>
+      <c r="G35">
+        <v>0.48805375808860119</v>
+      </c>
+      <c r="H35">
+        <v>-3.5003650961810788E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>0.48356481481481478</v>
+      </c>
+      <c r="D36">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E36" t="s">
+        <v>579</v>
+      </c>
+      <c r="F36" t="s">
+        <v>578</v>
+      </c>
+      <c r="G36">
+        <v>0.51742160278745641</v>
+      </c>
+      <c r="H36">
+        <v>-2.5425217046708259E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>0.32660256410256411</v>
+      </c>
+      <c r="D37">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E37" t="s">
+        <v>577</v>
+      </c>
+      <c r="F37" t="s">
+        <v>576</v>
+      </c>
+      <c r="G37">
+        <v>0.46092583374813328</v>
+      </c>
+      <c r="H37">
+        <v>4.5572590687308269E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0.28515691263782872</v>
+      </c>
+      <c r="D38">
+        <v>0.45555555555555549</v>
+      </c>
+      <c r="E38" t="s">
+        <v>448</v>
+      </c>
+      <c r="F38" t="s">
+        <v>447</v>
+      </c>
+      <c r="G38">
+        <v>0.5</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>0.30912820512820521</v>
+      </c>
+      <c r="D39">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E39" t="s">
+        <v>460</v>
+      </c>
+      <c r="F39" t="s">
+        <v>459</v>
+      </c>
+      <c r="G39">
+        <v>0.49776007964161267</v>
+      </c>
+      <c r="H39">
+        <v>9.6961401672802275E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>0.30912820512820521</v>
+      </c>
+      <c r="D40">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E40" t="s">
+        <v>460</v>
+      </c>
+      <c r="F40" t="s">
+        <v>459</v>
+      </c>
+      <c r="G40">
+        <v>0.51767048282727723</v>
+      </c>
+      <c r="H40">
+        <v>9.6961401672802275E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>0.51884057971014486</v>
+      </c>
+      <c r="D41">
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E41" t="s">
+        <v>575</v>
+      </c>
+      <c r="F41" t="s">
+        <v>574</v>
+      </c>
+      <c r="G41">
+        <v>0.59606769537083126</v>
+      </c>
+      <c r="H41">
+        <v>0.25027731380606832</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>573</v>
+      </c>
+      <c r="F42" t="s">
+        <v>572</v>
+      </c>
+      <c r="G42">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="H42">
+        <v>-0.26261286571944509</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0.27810419114766938</v>
+      </c>
+      <c r="D43">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E43" t="s">
+        <v>571</v>
+      </c>
+      <c r="F43" t="s">
+        <v>570</v>
+      </c>
+      <c r="G43">
+        <v>0.5</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D44">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E44" t="s">
+        <v>569</v>
+      </c>
+      <c r="F44" t="s">
+        <v>568</v>
+      </c>
+      <c r="G44">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="H44">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.2344322344322344</v>
+      </c>
+      <c r="D45">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E45" t="s">
+        <v>435</v>
+      </c>
+      <c r="F45" t="s">
+        <v>434</v>
+      </c>
+      <c r="G45">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H45">
+        <v>0.13130643285972249</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D46">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E46" t="s">
+        <v>433</v>
+      </c>
+      <c r="F46" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46">
+        <v>0.5</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D47">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E47" t="s">
+        <v>433</v>
+      </c>
+      <c r="F47" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47">
+        <v>0.63</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D48">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E48" t="s">
+        <v>433</v>
+      </c>
+      <c r="F48" t="s">
+        <v>432</v>
+      </c>
+      <c r="G48">
+        <v>0.62</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="D49">
+        <v>0.5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>567</v>
+      </c>
+      <c r="F49" t="s">
+        <v>566</v>
+      </c>
+      <c r="G49">
+        <v>0.625</v>
+      </c>
+      <c r="H49">
+        <v>0.31622776601683789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D50">
+        <v>0.3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>573</v>
+      </c>
+      <c r="F50" t="s">
+        <v>572</v>
+      </c>
+      <c r="G50">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="H50">
+        <v>-0.26261286571944509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D51">
+        <v>0.3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>573</v>
+      </c>
+      <c r="F51" t="s">
+        <v>572</v>
+      </c>
+      <c r="G51">
+        <v>0.45</v>
+      </c>
+      <c r="H51">
+        <v>-0.26261286571944509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D52">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E52" t="s">
+        <v>569</v>
+      </c>
+      <c r="F52" t="s">
+        <v>568</v>
+      </c>
+      <c r="G52">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="H52">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>0.2344322344322344</v>
+      </c>
+      <c r="D53">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E53" t="s">
+        <v>435</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H53">
+        <v>0.13130643285972249</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D54">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E54" t="s">
+        <v>433</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54">
+        <v>0.5</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D55">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E55" t="s">
+        <v>433</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55">
+        <v>0.63</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D56">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E56" t="s">
+        <v>433</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56">
+        <v>0.62</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F57" t="s">
+        <v>566</v>
+      </c>
+      <c r="G57">
+        <v>0.625</v>
+      </c>
+      <c r="H57">
+        <v>0.31622776601683789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="D58">
+        <v>0.3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>573</v>
+      </c>
+      <c r="F58" t="s">
+        <v>572</v>
+      </c>
+      <c r="G58">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="H58">
+        <v>-0.26261286571944509</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>0.27810419114766938</v>
+      </c>
+      <c r="D59">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E59" t="s">
+        <v>571</v>
+      </c>
+      <c r="F59" t="s">
+        <v>570</v>
+      </c>
+      <c r="G59">
+        <v>0.5</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D60">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E60" t="s">
+        <v>569</v>
+      </c>
+      <c r="F60" t="s">
+        <v>568</v>
+      </c>
+      <c r="G60">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="H60">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>0.2344322344322344</v>
+      </c>
+      <c r="D61">
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="E61" t="s">
+        <v>435</v>
+      </c>
+      <c r="F61" t="s">
+        <v>434</v>
+      </c>
+      <c r="G61">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H61">
+        <v>0.13130643285972249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D62">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E62" t="s">
+        <v>433</v>
+      </c>
+      <c r="F62" t="s">
+        <v>432</v>
+      </c>
+      <c r="G62">
+        <v>0.5</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D63">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E63" t="s">
+        <v>433</v>
+      </c>
+      <c r="F63" t="s">
+        <v>432</v>
+      </c>
+      <c r="G63">
+        <v>0.63</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D64">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E64" t="s">
+        <v>433</v>
+      </c>
+      <c r="F64" t="s">
+        <v>432</v>
+      </c>
+      <c r="G64">
+        <v>0.62</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>0.45714285714285718</v>
+      </c>
+      <c r="D65">
+        <v>0.5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>567</v>
+      </c>
+      <c r="F65" t="s">
+        <v>566</v>
+      </c>
+      <c r="G65">
+        <v>0.625</v>
+      </c>
+      <c r="H65">
+        <v>0.31622776601683789</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>0.59170653907496018</v>
+      </c>
+      <c r="D66">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="E66" t="s">
+        <v>565</v>
+      </c>
+      <c r="F66" t="s">
+        <v>564</v>
+      </c>
+      <c r="G66">
+        <v>0.70217391304347831</v>
+      </c>
+      <c r="H66">
+        <v>0.2046559502458076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>0.14094432699083859</v>
+      </c>
+      <c r="D67">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="E67" t="s">
+        <v>423</v>
+      </c>
+      <c r="F67" t="s">
+        <v>422</v>
+      </c>
+      <c r="G67">
+        <v>0.5</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>0.31235431235431238</v>
+      </c>
+      <c r="D68">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E68" t="s">
+        <v>411</v>
+      </c>
+      <c r="F68" t="s">
+        <v>410</v>
+      </c>
+      <c r="G68">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="H68">
+        <v>0.2085144140570748</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D69">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E69" t="s">
+        <v>559</v>
+      </c>
+      <c r="F69" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69">
+        <v>0.63478260869565228</v>
+      </c>
+      <c r="H69">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>0.57251082251082264</v>
+      </c>
+      <c r="D70">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="E70" t="s">
+        <v>563</v>
+      </c>
+      <c r="F70" t="s">
+        <v>562</v>
+      </c>
+      <c r="G70">
+        <v>0.5</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>0.54208754208754195</v>
+      </c>
+      <c r="D71">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E71" t="s">
+        <v>561</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71">
+        <v>0.66086956521739126</v>
+      </c>
+      <c r="H71">
+        <v>-0.16748280772542129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D72">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E72" t="s">
+        <v>559</v>
+      </c>
+      <c r="F72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G72">
+        <v>0.65652173913043477</v>
+      </c>
+      <c r="H72">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>0.367003367003367</v>
+      </c>
+      <c r="D73">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E73" t="s">
+        <v>425</v>
+      </c>
+      <c r="F73" t="s">
+        <v>424</v>
+      </c>
+      <c r="G73">
+        <v>0.55869565217391304</v>
+      </c>
+      <c r="H73">
+        <v>1.9550613012972021E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>0.59170653907496018</v>
+      </c>
+      <c r="D74">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="E74" t="s">
+        <v>565</v>
+      </c>
+      <c r="F74" t="s">
+        <v>564</v>
+      </c>
+      <c r="G74">
+        <v>0.70217391304347831</v>
+      </c>
+      <c r="H74">
+        <v>0.2046559502458076</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>0.14094432699083859</v>
+      </c>
+      <c r="D75">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="E75" t="s">
+        <v>423</v>
+      </c>
+      <c r="F75" t="s">
+        <v>422</v>
+      </c>
+      <c r="G75">
+        <v>0.5</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>0.31235431235431238</v>
+      </c>
+      <c r="D76">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E76" t="s">
+        <v>411</v>
+      </c>
+      <c r="F76" t="s">
+        <v>410</v>
+      </c>
+      <c r="G76">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="H76">
+        <v>0.2085144140570748</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D77">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E77" t="s">
+        <v>559</v>
+      </c>
+      <c r="F77" t="s">
+        <v>558</v>
+      </c>
+      <c r="G77">
+        <v>0.63478260869565228</v>
+      </c>
+      <c r="H77">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>0.57251082251082264</v>
+      </c>
+      <c r="D78">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="E78" t="s">
+        <v>563</v>
+      </c>
+      <c r="F78" t="s">
+        <v>562</v>
+      </c>
+      <c r="G78">
+        <v>0.5</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>0.54208754208754195</v>
+      </c>
+      <c r="D79">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E79" t="s">
+        <v>561</v>
+      </c>
+      <c r="F79" t="s">
+        <v>560</v>
+      </c>
+      <c r="G79">
+        <v>0.66086956521739126</v>
+      </c>
+      <c r="H79">
+        <v>-0.16748280772542129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D80">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E80" t="s">
+        <v>559</v>
+      </c>
+      <c r="F80" t="s">
+        <v>558</v>
+      </c>
+      <c r="G80">
+        <v>0.65652173913043477</v>
+      </c>
+      <c r="H80">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="6"/>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>0.367003367003367</v>
+      </c>
+      <c r="D81">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E81" t="s">
+        <v>425</v>
+      </c>
+      <c r="F81" t="s">
+        <v>424</v>
+      </c>
+      <c r="G81">
+        <v>0.55869565217391304</v>
+      </c>
+      <c r="H81">
+        <v>1.9550613012972021E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>0.59170653907496018</v>
+      </c>
+      <c r="D82">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="E82" t="s">
+        <v>565</v>
+      </c>
+      <c r="F82" t="s">
+        <v>564</v>
+      </c>
+      <c r="G82">
+        <v>0.70217391304347831</v>
+      </c>
+      <c r="H82">
+        <v>0.2046559502458076</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>0.14094432699083859</v>
+      </c>
+      <c r="D83">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="E83" t="s">
+        <v>423</v>
+      </c>
+      <c r="F83" t="s">
+        <v>422</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84">
+        <v>0.31235431235431238</v>
+      </c>
+      <c r="D84">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E84" t="s">
+        <v>411</v>
+      </c>
+      <c r="F84" t="s">
+        <v>410</v>
+      </c>
+      <c r="G84">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="H84">
+        <v>0.2085144140570748</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D85">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E85" t="s">
+        <v>559</v>
+      </c>
+      <c r="F85" t="s">
+        <v>558</v>
+      </c>
+      <c r="G85">
+        <v>0.63478260869565228</v>
+      </c>
+      <c r="H85">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>0.57251082251082264</v>
+      </c>
+      <c r="D86">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="E86" t="s">
+        <v>563</v>
+      </c>
+      <c r="F86" t="s">
+        <v>562</v>
+      </c>
+      <c r="G86">
+        <v>0.5</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>0.54208754208754195</v>
+      </c>
+      <c r="D87">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E87" t="s">
+        <v>561</v>
+      </c>
+      <c r="F87" t="s">
+        <v>560</v>
+      </c>
+      <c r="G87">
+        <v>0.66086956521739126</v>
+      </c>
+      <c r="H87">
+        <v>-0.16748280772542129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D88">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E88" t="s">
+        <v>559</v>
+      </c>
+      <c r="F88" t="s">
+        <v>558</v>
+      </c>
+      <c r="G88">
+        <v>0.65652173913043477</v>
+      </c>
+      <c r="H88">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>0.367003367003367</v>
+      </c>
+      <c r="D89">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E89" t="s">
+        <v>425</v>
+      </c>
+      <c r="F89" t="s">
+        <v>424</v>
+      </c>
+      <c r="G89">
+        <v>0.55869565217391304</v>
+      </c>
+      <c r="H89">
+        <v>1.9550613012972021E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>0.59170653907496018</v>
+      </c>
+      <c r="D90">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="E90" t="s">
+        <v>565</v>
+      </c>
+      <c r="F90" t="s">
+        <v>564</v>
+      </c>
+      <c r="G90">
+        <v>0.70217391304347831</v>
+      </c>
+      <c r="H90">
+        <v>0.2046559502458076</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>0.14094432699083859</v>
+      </c>
+      <c r="D91">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="E91" t="s">
+        <v>423</v>
+      </c>
+      <c r="F91" t="s">
+        <v>422</v>
+      </c>
+      <c r="G91">
+        <v>0.5</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>0.31235431235431238</v>
+      </c>
+      <c r="D92">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E92" t="s">
+        <v>411</v>
+      </c>
+      <c r="F92" t="s">
+        <v>410</v>
+      </c>
+      <c r="G92">
+        <v>0.56521739130434778</v>
+      </c>
+      <c r="H92">
+        <v>0.2085144140570748</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D93">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E93" t="s">
+        <v>559</v>
+      </c>
+      <c r="F93" t="s">
+        <v>558</v>
+      </c>
+      <c r="G93">
+        <v>0.63478260869565228</v>
+      </c>
+      <c r="H93">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>0.57251082251082264</v>
+      </c>
+      <c r="D94">
+        <v>0.69696969696969702</v>
+      </c>
+      <c r="E94" t="s">
+        <v>563</v>
+      </c>
+      <c r="F94" t="s">
+        <v>562</v>
+      </c>
+      <c r="G94">
+        <v>0.5</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>0.54208754208754195</v>
+      </c>
+      <c r="D95">
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="E95" t="s">
+        <v>561</v>
+      </c>
+      <c r="F95" t="s">
+        <v>560</v>
+      </c>
+      <c r="G95">
+        <v>0.66086956521739126</v>
+      </c>
+      <c r="H95">
+        <v>-0.16748280772542129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>0.34267486899065852</v>
+      </c>
+      <c r="D96">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E96" t="s">
+        <v>559</v>
+      </c>
+      <c r="F96" t="s">
+        <v>558</v>
+      </c>
+      <c r="G96">
+        <v>0.65652173913043477</v>
+      </c>
+      <c r="H96">
+        <v>9.4737296137809984E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="6"/>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0.367003367003367</v>
+      </c>
+      <c r="D97">
+        <v>0.39393939393939392</v>
+      </c>
+      <c r="E97" t="s">
+        <v>425</v>
+      </c>
+      <c r="F97" t="s">
+        <v>424</v>
+      </c>
+      <c r="G97">
+        <v>0.55869565217391304</v>
+      </c>
+      <c r="H97">
+        <v>1.9550613012972021E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>0.25521932911095468</v>
+      </c>
+      <c r="D98">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="E98" t="s">
+        <v>553</v>
+      </c>
+      <c r="F98" t="s">
+        <v>552</v>
+      </c>
+      <c r="G98">
+        <v>0.42603550295857978</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D99">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E99" t="s">
+        <v>397</v>
+      </c>
+      <c r="F99" t="s">
+        <v>396</v>
+      </c>
+      <c r="G99">
+        <v>0.5</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>0.57354497354497358</v>
+      </c>
+      <c r="D100">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E100" t="s">
+        <v>549</v>
+      </c>
+      <c r="F100" t="s">
+        <v>548</v>
+      </c>
+      <c r="G100">
+        <v>0.51923076923076927</v>
+      </c>
+      <c r="H100">
+        <v>8.2199493652678646E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D101">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E101" t="s">
+        <v>397</v>
+      </c>
+      <c r="F101" t="s">
+        <v>396</v>
+      </c>
+      <c r="G101">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D102">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E102" t="s">
+        <v>547</v>
+      </c>
+      <c r="F102" t="s">
+        <v>546</v>
+      </c>
+      <c r="G102">
+        <v>0.5</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D103">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E103" t="s">
+        <v>397</v>
+      </c>
+      <c r="F103" t="s">
+        <v>396</v>
+      </c>
+      <c r="G103">
+        <v>0.55621301775147924</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>0.66957153231663036</v>
+      </c>
+      <c r="D104">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E104" t="s">
+        <v>545</v>
+      </c>
+      <c r="F104" t="s">
+        <v>544</v>
+      </c>
+      <c r="G104">
+        <v>0.65088757396449703</v>
+      </c>
+      <c r="H104">
+        <v>0.26457513110645908</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="6"/>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>0.5859649122807018</v>
+      </c>
+      <c r="D105">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="E105" t="s">
+        <v>543</v>
+      </c>
+      <c r="F105" t="s">
+        <v>542</v>
+      </c>
+      <c r="G105">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H105">
+        <v>0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>0.25521932911095468</v>
+      </c>
+      <c r="D106">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="E106" t="s">
+        <v>553</v>
+      </c>
+      <c r="F106" t="s">
+        <v>552</v>
+      </c>
+      <c r="G106">
+        <v>0.42603550295857978</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>0.50793650793650791</v>
+      </c>
+      <c r="D107">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="E107" t="s">
+        <v>557</v>
+      </c>
+      <c r="F107" t="s">
+        <v>556</v>
+      </c>
+      <c r="G107">
+        <v>0.46153846153846162</v>
+      </c>
+      <c r="H107">
+        <v>-0.16439898730535729</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <v>0.57354497354497358</v>
+      </c>
+      <c r="D108">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E108" t="s">
+        <v>549</v>
+      </c>
+      <c r="F108" t="s">
+        <v>548</v>
+      </c>
+      <c r="G108">
+        <v>0.51923076923076927</v>
+      </c>
+      <c r="H108">
+        <v>8.2199493652678646E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D109">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E109" t="s">
+        <v>397</v>
+      </c>
+      <c r="F109" t="s">
+        <v>396</v>
+      </c>
+      <c r="G109">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D110">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E110" t="s">
+        <v>547</v>
+      </c>
+      <c r="F110" t="s">
+        <v>546</v>
+      </c>
+      <c r="G110">
+        <v>0.5</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D111">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E111" t="s">
+        <v>397</v>
+      </c>
+      <c r="F111" t="s">
+        <v>396</v>
+      </c>
+      <c r="G111">
+        <v>0.55621301775147924</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>0.66957153231663036</v>
+      </c>
+      <c r="D112">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E112" t="s">
+        <v>545</v>
+      </c>
+      <c r="F112" t="s">
+        <v>544</v>
+      </c>
+      <c r="G112">
+        <v>0.65088757396449703</v>
+      </c>
+      <c r="H112">
+        <v>0.26457513110645908</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="6"/>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>0.5859649122807018</v>
+      </c>
+      <c r="D113">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="E113" t="s">
+        <v>543</v>
+      </c>
+      <c r="F113" t="s">
+        <v>542</v>
+      </c>
+      <c r="G113">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H113">
+        <v>0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>0.25521932911095468</v>
+      </c>
+      <c r="D114">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="E114" t="s">
+        <v>553</v>
+      </c>
+      <c r="F114" t="s">
+        <v>552</v>
+      </c>
+      <c r="G114">
+        <v>0.42603550295857978</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>0.63915343915343925</v>
+      </c>
+      <c r="D115">
+        <v>0.71794871794871795</v>
+      </c>
+      <c r="E115" t="s">
+        <v>555</v>
+      </c>
+      <c r="F115" t="s">
+        <v>554</v>
+      </c>
+      <c r="G115">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H115">
+        <v>0.32879797461071458</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116">
+        <v>0.57354497354497358</v>
+      </c>
+      <c r="D116">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E116" t="s">
+        <v>549</v>
+      </c>
+      <c r="F116" t="s">
+        <v>548</v>
+      </c>
+      <c r="G116">
+        <v>0.51923076923076927</v>
+      </c>
+      <c r="H116">
+        <v>8.2199493652678646E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D117">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E117" t="s">
+        <v>397</v>
+      </c>
+      <c r="F117" t="s">
+        <v>396</v>
+      </c>
+      <c r="G117">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D118">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E118" t="s">
+        <v>547</v>
+      </c>
+      <c r="F118" t="s">
+        <v>546</v>
+      </c>
+      <c r="G118">
+        <v>0.5</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D119">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E119" t="s">
+        <v>397</v>
+      </c>
+      <c r="F119" t="s">
+        <v>396</v>
+      </c>
+      <c r="G119">
+        <v>0.55621301775147924</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>0.66957153231663036</v>
+      </c>
+      <c r="D120">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E120" t="s">
+        <v>545</v>
+      </c>
+      <c r="F120" t="s">
+        <v>544</v>
+      </c>
+      <c r="G120">
+        <v>0.65088757396449703</v>
+      </c>
+      <c r="H120">
+        <v>0.26457513110645908</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="6"/>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.5859649122807018</v>
+      </c>
+      <c r="D121">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="E121" t="s">
+        <v>543</v>
+      </c>
+      <c r="F121" t="s">
+        <v>542</v>
+      </c>
+      <c r="G121">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H121">
+        <v>0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>0.25521932911095468</v>
+      </c>
+      <c r="D122">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="E122" t="s">
+        <v>553</v>
+      </c>
+      <c r="F122" t="s">
+        <v>552</v>
+      </c>
+      <c r="G122">
+        <v>0.42603550295857978</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>0.49462365591397839</v>
+      </c>
+      <c r="D123">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="E123" t="s">
+        <v>551</v>
+      </c>
+      <c r="F123" t="s">
+        <v>550</v>
+      </c>
+      <c r="G123">
+        <v>0.44230769230769229</v>
+      </c>
+      <c r="H123">
+        <v>-0.20412414523193151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>0.57354497354497358</v>
+      </c>
+      <c r="D124">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E124" t="s">
+        <v>549</v>
+      </c>
+      <c r="F124" t="s">
+        <v>548</v>
+      </c>
+      <c r="G124">
+        <v>0.51923076923076927</v>
+      </c>
+      <c r="H124">
+        <v>8.2199493652678646E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D125">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E125" t="s">
+        <v>397</v>
+      </c>
+      <c r="F125" t="s">
+        <v>396</v>
+      </c>
+      <c r="G125">
+        <v>0.57692307692307687</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126">
+        <v>0.16666666666666671</v>
+      </c>
+      <c r="D126">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E126" t="s">
+        <v>547</v>
+      </c>
+      <c r="F126" t="s">
+        <v>546</v>
+      </c>
+      <c r="G126">
+        <v>0.5</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="D127">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E127" t="s">
+        <v>397</v>
+      </c>
+      <c r="F127" t="s">
+        <v>396</v>
+      </c>
+      <c r="G127">
+        <v>0.55621301775147924</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>0.66957153231663036</v>
+      </c>
+      <c r="D128">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E128" t="s">
+        <v>545</v>
+      </c>
+      <c r="F128" t="s">
+        <v>544</v>
+      </c>
+      <c r="G128">
+        <v>0.65088757396449703</v>
+      </c>
+      <c r="H128">
+        <v>0.26457513110645908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="6"/>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>0.5859649122807018</v>
+      </c>
+      <c r="D129">
+        <v>0.58974358974358976</v>
+      </c>
+      <c r="E129" t="s">
+        <v>543</v>
+      </c>
+      <c r="F129" t="s">
+        <v>542</v>
+      </c>
+      <c r="G129">
+        <v>0.67307692307692313</v>
+      </c>
+      <c r="H129">
+        <v>0.35355339059327379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="D130">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E130" t="s">
+        <v>541</v>
+      </c>
+      <c r="F130" t="s">
+        <v>540</v>
+      </c>
+      <c r="G130">
+        <v>0.41764705882352943</v>
+      </c>
+      <c r="H130">
+        <v>-0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>0.34419381787802839</v>
+      </c>
+      <c r="D131">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E131" t="s">
+        <v>539</v>
+      </c>
+      <c r="F131" t="s">
+        <v>538</v>
+      </c>
+      <c r="G131">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="H131">
+        <v>0.21693045781865619</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>0.5651867512332629</v>
+      </c>
+      <c r="D132">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E132" t="s">
+        <v>383</v>
+      </c>
+      <c r="F132" t="s">
+        <v>382</v>
+      </c>
+      <c r="G132">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H132">
+        <v>0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D133">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E133" t="s">
+        <v>535</v>
+      </c>
+      <c r="F133" t="s">
+        <v>534</v>
+      </c>
+      <c r="G133">
+        <v>0.39411764705882357</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D134">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E134" t="s">
+        <v>535</v>
+      </c>
+      <c r="F134" t="s">
+        <v>534</v>
+      </c>
+      <c r="G134">
+        <v>0.5</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>0.48653198653198648</v>
+      </c>
+      <c r="D135">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E135" t="s">
+        <v>537</v>
+      </c>
+      <c r="F135" t="s">
+        <v>536</v>
+      </c>
+      <c r="G135">
+        <v>0.35882352941176471</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D136">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E136" t="s">
+        <v>535</v>
+      </c>
+      <c r="F136" t="s">
+        <v>534</v>
+      </c>
+      <c r="G136">
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="6"/>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>0.57804232804232802</v>
+      </c>
+      <c r="D137">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E137" t="s">
+        <v>533</v>
+      </c>
+      <c r="F137" t="s">
+        <v>532</v>
+      </c>
+      <c r="G137">
+        <v>0.56176470588235294</v>
+      </c>
+      <c r="H137">
+        <v>0.1119462786762602</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="D138">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E138" t="s">
+        <v>541</v>
+      </c>
+      <c r="F138" t="s">
+        <v>540</v>
+      </c>
+      <c r="G138">
+        <v>0.41764705882352943</v>
+      </c>
+      <c r="H138">
+        <v>-0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D139">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E139" t="s">
+        <v>535</v>
+      </c>
+      <c r="F139" t="s">
+        <v>534</v>
+      </c>
+      <c r="G139">
+        <v>0.5</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>0.5651867512332629</v>
+      </c>
+      <c r="D140">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E140" t="s">
+        <v>383</v>
+      </c>
+      <c r="F140" t="s">
+        <v>382</v>
+      </c>
+      <c r="G140">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H140">
+        <v>0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D141">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E141" t="s">
+        <v>535</v>
+      </c>
+      <c r="F141" t="s">
+        <v>534</v>
+      </c>
+      <c r="G141">
+        <v>0.39411764705882357</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D142">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E142" t="s">
+        <v>535</v>
+      </c>
+      <c r="F142" t="s">
+        <v>534</v>
+      </c>
+      <c r="G142">
+        <v>0.5</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>0.48653198653198648</v>
+      </c>
+      <c r="D143">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E143" t="s">
+        <v>537</v>
+      </c>
+      <c r="F143" t="s">
+        <v>536</v>
+      </c>
+      <c r="G143">
+        <v>0.35882352941176471</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D144">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E144" t="s">
+        <v>535</v>
+      </c>
+      <c r="F144" t="s">
+        <v>534</v>
+      </c>
+      <c r="G144">
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="6"/>
+      <c r="B145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>0.57804232804232802</v>
+      </c>
+      <c r="D145">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E145" t="s">
+        <v>533</v>
+      </c>
+      <c r="F145" t="s">
+        <v>532</v>
+      </c>
+      <c r="G145">
+        <v>0.56176470588235294</v>
+      </c>
+      <c r="H145">
+        <v>0.1119462786762602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="D146">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E146" t="s">
+        <v>541</v>
+      </c>
+      <c r="F146" t="s">
+        <v>540</v>
+      </c>
+      <c r="G146">
+        <v>0.41764705882352943</v>
+      </c>
+      <c r="H146">
+        <v>-0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D147">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E147" t="s">
+        <v>535</v>
+      </c>
+      <c r="F147" t="s">
+        <v>534</v>
+      </c>
+      <c r="G147">
+        <v>0.5</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148">
+        <v>0.5651867512332629</v>
+      </c>
+      <c r="D148">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E148" t="s">
+        <v>383</v>
+      </c>
+      <c r="F148" t="s">
+        <v>382</v>
+      </c>
+      <c r="G148">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H148">
+        <v>0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D149">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E149" t="s">
+        <v>535</v>
+      </c>
+      <c r="F149" t="s">
+        <v>534</v>
+      </c>
+      <c r="G149">
+        <v>0.39411764705882357</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D150">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E150" t="s">
+        <v>535</v>
+      </c>
+      <c r="F150" t="s">
+        <v>534</v>
+      </c>
+      <c r="G150">
+        <v>0.5</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151">
+        <v>0.48653198653198648</v>
+      </c>
+      <c r="D151">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E151" t="s">
+        <v>537</v>
+      </c>
+      <c r="F151" t="s">
+        <v>536</v>
+      </c>
+      <c r="G151">
+        <v>0.35882352941176471</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D152">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E152" t="s">
+        <v>535</v>
+      </c>
+      <c r="F152" t="s">
+        <v>534</v>
+      </c>
+      <c r="G152">
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="6"/>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <v>0.57804232804232802</v>
+      </c>
+      <c r="D153">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E153" t="s">
+        <v>533</v>
+      </c>
+      <c r="F153" t="s">
+        <v>532</v>
+      </c>
+      <c r="G153">
+        <v>0.56176470588235294</v>
+      </c>
+      <c r="H153">
+        <v>0.1119462786762602</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="D154">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E154" t="s">
+        <v>541</v>
+      </c>
+      <c r="F154" t="s">
+        <v>540</v>
+      </c>
+      <c r="G154">
+        <v>0.41764705882352943</v>
+      </c>
+      <c r="H154">
+        <v>-0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <v>0.34419381787802839</v>
+      </c>
+      <c r="D155">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E155" t="s">
+        <v>539</v>
+      </c>
+      <c r="F155" t="s">
+        <v>538</v>
+      </c>
+      <c r="G155">
+        <v>0.55882352941176472</v>
+      </c>
+      <c r="H155">
+        <v>0.21693045781865619</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156">
+        <v>0.5651867512332629</v>
+      </c>
+      <c r="D156">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E156" t="s">
+        <v>383</v>
+      </c>
+      <c r="F156" t="s">
+        <v>382</v>
+      </c>
+      <c r="G156">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H156">
+        <v>0.25570415597837942</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D157">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E157" t="s">
+        <v>535</v>
+      </c>
+      <c r="F157" t="s">
+        <v>534</v>
+      </c>
+      <c r="G157">
+        <v>0.39411764705882357</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D158">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E158" t="s">
+        <v>535</v>
+      </c>
+      <c r="F158" t="s">
+        <v>534</v>
+      </c>
+      <c r="G158">
+        <v>0.5</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159">
+        <v>0.48653198653198648</v>
+      </c>
+      <c r="D159">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E159" t="s">
+        <v>537</v>
+      </c>
+      <c r="F159" t="s">
+        <v>536</v>
+      </c>
+      <c r="G159">
+        <v>0.35882352941176471</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>0.20020020020020021</v>
+      </c>
+      <c r="D160">
+        <v>0.37037037037037029</v>
+      </c>
+      <c r="E160" t="s">
+        <v>535</v>
+      </c>
+      <c r="F160" t="s">
+        <v>534</v>
+      </c>
+      <c r="G160">
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="6"/>
+      <c r="B161" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161">
+        <v>0.57804232804232802</v>
+      </c>
+      <c r="D161">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="E161" t="s">
+        <v>533</v>
+      </c>
+      <c r="F161" t="s">
+        <v>532</v>
+      </c>
+      <c r="G161">
+        <v>0.56176470588235294</v>
+      </c>
+      <c r="H161">
+        <v>0.1119462786762602</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
     <mergeCell ref="A50:A57"/>
     <mergeCell ref="A58:A65"/>
+    <mergeCell ref="A98:A105"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="A114:A121"/>
+    <mergeCell ref="A122:A129"/>
     <mergeCell ref="A66:A73"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="A82:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="A138:A145"/>
+    <mergeCell ref="A146:A153"/>
+    <mergeCell ref="A154:A161"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A26:A33"/>
     <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A09E65-774A-2E44-ABDB-103F966EB6AF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
